--- a/data/raw/others/FGS.xlsx
+++ b/data/raw/others/FGS.xlsx
@@ -342,8 +342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,334 +1354,202 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>43922</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>44013</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>44105</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>44197</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>44287</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>44378</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>44470</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>44562</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>44652</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>44743</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>44835</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>44927</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>45017</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>45108</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>45200</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>45292</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>45383</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>45474</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>45566</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>45658</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>45748</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>45839</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>45931</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>46023</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>46113</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>46204</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>46296</v>
-      </c>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>46388</v>
-      </c>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>46478</v>
-      </c>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>46569</v>
-      </c>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>46661</v>
-      </c>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>46753</v>
-      </c>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>46844</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>46935</v>
-      </c>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>47027</v>
-      </c>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>47119</v>
-      </c>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>47209</v>
-      </c>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>47300</v>
-      </c>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>47392</v>
-      </c>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>47484</v>
-      </c>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>47574</v>
-      </c>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>47665</v>
-      </c>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>47757</v>
-      </c>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>47849</v>
-      </c>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>47939</v>
-      </c>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>48030</v>
-      </c>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>48122</v>
-      </c>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>48214</v>
-      </c>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>48305</v>
-      </c>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>48396</v>
-      </c>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>48488</v>
-      </c>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>48580</v>
-      </c>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>48670</v>
-      </c>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>48761</v>
-      </c>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>48853</v>
-      </c>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>48945</v>
-      </c>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>49035</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>49126</v>
-      </c>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>49218</v>
-      </c>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>49310</v>
-      </c>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>49400</v>
-      </c>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>49491</v>
-      </c>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>49583</v>
-      </c>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>49675</v>
-      </c>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>49766</v>
-      </c>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>49857</v>
-      </c>
+      <c r="A192" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/others/FGS.xlsx
+++ b/data/raw/others/FGS.xlsx
@@ -342,8 +342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:A192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,7 +358,7 @@
         <v>32509</v>
       </c>
       <c r="B2">
-        <v>0.35772519346693599</v>
+        <v>0.44321290000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -366,7 +366,7 @@
         <v>32599</v>
       </c>
       <c r="B3">
-        <v>0.40757122143417202</v>
+        <v>0.46050350000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -374,7 +374,7 @@
         <v>32690</v>
       </c>
       <c r="B4">
-        <v>0.40483726231766398</v>
+        <v>0.37897730000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -382,7 +382,7 @@
         <v>32782</v>
       </c>
       <c r="B5">
-        <v>0.342644268741358</v>
+        <v>0.38402829999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +390,7 @@
         <v>32874</v>
       </c>
       <c r="B6">
-        <v>0.38098700746804198</v>
+        <v>0.28938659999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +398,7 @@
         <v>32964</v>
       </c>
       <c r="B7">
-        <v>0.40529557734716298</v>
+        <v>0.48312149999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,7 +406,7 @@
         <v>33055</v>
       </c>
       <c r="B8">
-        <v>0.36142572990551097</v>
+        <v>0.37586350000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,7 +414,7 @@
         <v>33147</v>
       </c>
       <c r="B9">
-        <v>0.40814684249723898</v>
+        <v>0.34515570000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +422,7 @@
         <v>33239</v>
       </c>
       <c r="B10">
-        <v>0.41340068801614999</v>
+        <v>0.35012720000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>33329</v>
       </c>
       <c r="B11">
-        <v>0.35265489363421898</v>
+        <v>0.51713480000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>33420</v>
       </c>
       <c r="B12">
-        <v>0.35142745297289801</v>
+        <v>0.32080160000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>33512</v>
       </c>
       <c r="B13">
-        <v>0.393563584853383</v>
+        <v>0.34178459999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>33604</v>
       </c>
       <c r="B14">
-        <v>0.372461810894885</v>
+        <v>0.33039760000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>33695</v>
       </c>
       <c r="B15">
-        <v>0.33447113763290698</v>
+        <v>0.47565039999999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>33786</v>
       </c>
       <c r="B16">
-        <v>0.41354427757716999</v>
+        <v>0.30205280000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>33878</v>
       </c>
       <c r="B17">
-        <v>0.33896288856530798</v>
+        <v>0.4101264</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>33970</v>
       </c>
       <c r="B18">
-        <v>0.31869057968401199</v>
+        <v>0.27108280000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>34060</v>
       </c>
       <c r="B19">
-        <v>0.33692912905476802</v>
+        <v>0.42040169999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>34151</v>
       </c>
       <c r="B20">
-        <v>0.33881249762148502</v>
+        <v>0.30558220000000003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>34243</v>
       </c>
       <c r="B21">
-        <v>0.29765600148353699</v>
+        <v>0.33821479999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>34335</v>
       </c>
       <c r="B22">
-        <v>0.34624010630241397</v>
+        <v>0.22947110000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>34425</v>
       </c>
       <c r="B23">
-        <v>0.3348986010003</v>
+        <v>0.4430212</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>34516</v>
       </c>
       <c r="B24">
-        <v>0.35730515156758602</v>
+        <v>0.30874639999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>34608</v>
       </c>
       <c r="B25">
-        <v>0.30234236786621299</v>
+        <v>0.3537033</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>34700</v>
       </c>
       <c r="B26">
-        <v>0.30538735716468701</v>
+        <v>0.23738680000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>34790</v>
       </c>
       <c r="B27">
-        <v>0.357321847381114</v>
+        <v>0.3970825</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>34881</v>
       </c>
       <c r="B28">
-        <v>0.35681088047343801</v>
+        <v>0.33813270000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>34973</v>
       </c>
       <c r="B29">
-        <v>0.36080714515957801</v>
+        <v>0.34457850000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>35065</v>
       </c>
       <c r="B30">
-        <v>0.35767325459107902</v>
+        <v>0.30440129999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>35156</v>
       </c>
       <c r="B31">
-        <v>0.32304991871554301</v>
+        <v>0.44307770000000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>35247</v>
       </c>
       <c r="B32">
-        <v>0.30772458446916501</v>
+        <v>0.30986079999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>35339</v>
       </c>
       <c r="B33">
-        <v>0.34780898599950999</v>
+        <v>0.28575479999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>35431</v>
       </c>
       <c r="B34">
-        <v>0.353713867550081</v>
+        <v>0.30278169999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>35521</v>
       </c>
       <c r="B35">
-        <v>0.33237169830476299</v>
+        <v>0.43224279999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>35612</v>
       </c>
       <c r="B36">
-        <v>0.33293236328599302</v>
+        <v>0.32231860000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>35704</v>
       </c>
       <c r="B37">
-        <v>0.39044680099868301</v>
+        <v>0.30476609999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>35796</v>
       </c>
       <c r="B38">
-        <v>0.39364735775030901</v>
+        <v>0.35481689999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>35886</v>
       </c>
       <c r="B39">
-        <v>0.45204306233283598</v>
+        <v>0.4672712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>35977</v>
       </c>
       <c r="B40">
-        <v>0.391382456805343</v>
+        <v>0.4410694</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>36069</v>
       </c>
       <c r="B41">
-        <v>0.36520650843749197</v>
+        <v>0.3615294</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>36161</v>
       </c>
       <c r="B42">
-        <v>0.34013895649603398</v>
+        <v>0.33685480000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>36251</v>
       </c>
       <c r="B43">
-        <v>0.34923652329648303</v>
+        <v>0.40875149999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>36342</v>
       </c>
       <c r="B44">
-        <v>0.397598567460412</v>
+        <v>0.33756019999999998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>36434</v>
       </c>
       <c r="B45">
-        <v>0.376016909614385</v>
+        <v>0.3660678</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>36526</v>
       </c>
       <c r="B46">
-        <v>0.37791943645304799</v>
+        <v>0.3554541</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>36617</v>
       </c>
       <c r="B47">
-        <v>0.413313058648965</v>
+        <v>0.44248150000000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>36708</v>
       </c>
       <c r="B48">
-        <v>0.42724011728941103</v>
+        <v>0.39732299999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>36800</v>
       </c>
       <c r="B49">
-        <v>0.39632744765588801</v>
+        <v>0.39645419999999998</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>36892</v>
       </c>
       <c r="B50">
-        <v>0.47575971054856903</v>
+        <v>0.38406829999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>36982</v>
       </c>
       <c r="B51">
-        <v>0.38927306171606402</v>
+        <v>0.53600840000000005</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>37073</v>
       </c>
       <c r="B52">
-        <v>0.392600758222168</v>
+        <v>0.36928670000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>37165</v>
       </c>
       <c r="B53">
-        <v>0.36871087973481198</v>
+        <v>0.35920950000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>37257</v>
       </c>
       <c r="B54">
-        <v>0.34526717789650302</v>
+        <v>0.36788929999999997</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>37347</v>
       </c>
       <c r="B55">
-        <v>0.38153446686039899</v>
+        <v>0.40331329999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>37438</v>
       </c>
       <c r="B56">
-        <v>0.27942371996883197</v>
+        <v>0.35316570000000003</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>37530</v>
       </c>
       <c r="B57">
-        <v>0.31030817003921801</v>
+        <v>0.24450530000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>37622</v>
       </c>
       <c r="B58">
-        <v>0.263905315926447</v>
+        <v>0.32294200000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>37712</v>
       </c>
       <c r="B59">
-        <v>0.26477842983761901</v>
+        <v>0.31626979999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>37803</v>
       </c>
       <c r="B60">
-        <v>0.33632117405398498</v>
+        <v>0.2328887</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>37895</v>
       </c>
       <c r="B61">
-        <v>0.26832759132351403</v>
+        <v>0.29627249999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>37987</v>
       </c>
       <c r="B62">
-        <v>0.28365215218228002</v>
+        <v>0.29443629999999998</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>38078</v>
       </c>
       <c r="B63">
-        <v>0.279989308802712</v>
+        <v>0.33147880000000002</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>38169</v>
       </c>
       <c r="B64">
-        <v>0.29919829902355699</v>
+        <v>0.24369279999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>38261</v>
       </c>
       <c r="B65">
-        <v>0.45072644152268398</v>
+        <v>0.25759399999999999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>38353</v>
       </c>
       <c r="B66">
-        <v>0.34737920642130499</v>
+        <v>0.48465370000000002</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>38443</v>
       </c>
       <c r="B67">
-        <v>0.32513761975982702</v>
+        <v>0.39192369999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
         <v>38534</v>
       </c>
       <c r="B68">
-        <v>0.35876355010058197</v>
+        <v>0.28859020000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>38626</v>
       </c>
       <c r="B69">
-        <v>0.37656269928838798</v>
+        <v>0.31429180000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>38718</v>
       </c>
       <c r="B70">
-        <v>0.340988696039072</v>
+        <v>0.41284559999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>38808</v>
       </c>
       <c r="B71">
-        <v>0.364936973135638</v>
+        <v>0.38726670000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>38899</v>
       </c>
       <c r="B72">
-        <v>0.35176825941256501</v>
+        <v>0.32834550000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>38991</v>
       </c>
       <c r="B73">
-        <v>0.347029763907239</v>
+        <v>0.30488759999999998</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>39083</v>
       </c>
       <c r="B74">
-        <v>0.37087318137228198</v>
+        <v>0.38169979999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>39173</v>
       </c>
       <c r="B75">
-        <v>0.387014578837031</v>
+        <v>0.4195527</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>39264</v>
       </c>
       <c r="B76">
-        <v>0.38471224257047498</v>
+        <v>0.35509049999999998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>39356</v>
       </c>
       <c r="B77">
-        <v>0.47566198013399802</v>
+        <v>0.3323991</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>39448</v>
       </c>
       <c r="B78">
-        <v>0.333585735232514</v>
+        <v>0.5068762</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>39539</v>
       </c>
       <c r="B79">
-        <v>0.40460005528412801</v>
+        <v>0.38734390000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>39630</v>
       </c>
       <c r="B80">
-        <v>0.43934043727940603</v>
+        <v>0.37606830000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>39722</v>
       </c>
       <c r="B81">
-        <v>0.376648343899746</v>
+        <v>0.38298880000000002</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>39814</v>
       </c>
       <c r="B82">
-        <v>0.40132092316861601</v>
+        <v>0.40258630000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>39904</v>
       </c>
       <c r="B83">
-        <v>0.33798948661069</v>
+        <v>0.4617117</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>39995</v>
       </c>
       <c r="B84">
-        <v>0.28065486804386203</v>
+        <v>0.31168940000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>40087</v>
       </c>
       <c r="B85">
-        <v>0.27139157485053</v>
+        <v>0.21963450000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>40179</v>
       </c>
       <c r="B86">
-        <v>0.27738591788813499</v>
+        <v>0.29431380000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>40269</v>
       </c>
       <c r="B87">
-        <v>0.31227192951177102</v>
+        <v>0.34405469999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>40360</v>
       </c>
       <c r="B88">
-        <v>0.31282187696180602</v>
+        <v>0.28613680000000002</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>40452</v>
       </c>
       <c r="B89">
-        <v>0.31416715942997703</v>
+        <v>0.24789530000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>40544</v>
       </c>
       <c r="B90">
-        <v>0.30216270419003199</v>
+        <v>0.33595000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>40634</v>
       </c>
       <c r="B91">
-        <v>0.28755060924300502</v>
+        <v>0.3733785</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>40725</v>
       </c>
       <c r="B92">
-        <v>0.29419808260152103</v>
+        <v>0.26161859999999998</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>40817</v>
       </c>
       <c r="B93">
-        <v>0.28515079674261101</v>
+        <v>0.22494900000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>40909</v>
       </c>
       <c r="B94">
-        <v>0.32296649847688302</v>
+        <v>0.306894</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>41000</v>
       </c>
       <c r="B95">
-        <v>0.32449022033574199</v>
+        <v>0.39935080000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>41091</v>
       </c>
       <c r="B96">
-        <v>0.33056966526188503</v>
+        <v>0.29716239999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>41183</v>
       </c>
       <c r="B97">
-        <v>0.37528137238046</v>
+        <v>0.25778200000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>41275</v>
       </c>
       <c r="B98">
-        <v>0.32153761048615997</v>
+        <v>0.39583400000000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>41365</v>
       </c>
       <c r="B99">
-        <v>0.33177492190910501</v>
+        <v>0.40489120000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>41456</v>
       </c>
       <c r="B100">
-        <v>0.33729276011106601</v>
+        <v>0.30244710000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>41548</v>
       </c>
       <c r="B101">
-        <v>0.29301583828855998</v>
+        <v>0.25994050000000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>41640</v>
       </c>
       <c r="B102">
-        <v>0.25696873964785799</v>
+        <v>0.31346370000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>41730</v>
       </c>
       <c r="B103">
-        <v>0.38509374151223402</v>
+        <v>0.34726089999999998</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>41821</v>
       </c>
       <c r="B104">
-        <v>0.36136179509030503</v>
+        <v>0.35236279999999998</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>41913</v>
       </c>
       <c r="B105">
-        <v>0.40706100846351301</v>
+        <v>0.28245599999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>42005</v>
       </c>
       <c r="B106">
-        <v>0.41862683648182297</v>
+        <v>0.4254193</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>42095</v>
       </c>
       <c r="B107">
-        <v>0.37911086886441703</v>
+        <v>0.5144109</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>42186</v>
       </c>
       <c r="B108">
-        <v>0.36720484962459399</v>
+        <v>0.3444856</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>42278</v>
       </c>
       <c r="B109">
-        <v>0.37530374672873001</v>
+        <v>0.28767169999999997</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>42370</v>
       </c>
       <c r="B110">
-        <v>0.40936626680634902</v>
+        <v>0.39172970000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>42461</v>
       </c>
       <c r="B111">
-        <v>0.38001483937653102</v>
+        <v>0.50817480000000004</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>42552</v>
       </c>
       <c r="B112">
-        <v>0.32842794409917098</v>
+        <v>0.34358549999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>42644</v>
       </c>
       <c r="B113">
-        <v>0.35430300331214598</v>
+        <v>0.25257770000000002</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>42736</v>
       </c>
       <c r="B114">
-        <v>0.34707982826190298</v>
+        <v>0.36523660000000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>42826</v>
       </c>
       <c r="B115">
-        <v>0.32812242659264601</v>
+        <v>0.44805539999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>42917</v>
       </c>
       <c r="B116">
-        <v>0.37395631516063699</v>
+        <v>0.2917978</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>43009</v>
       </c>
       <c r="B117">
-        <v>0.32533652861337098</v>
+        <v>0.3009944</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>43101</v>
       </c>
       <c r="B118">
-        <v>0.28815006110742197</v>
+        <v>0.33268379999999997</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>43191</v>
       </c>
       <c r="B119">
-        <v>0.31120263511734497</v>
+        <v>0.38883479999999998</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>43282</v>
       </c>
       <c r="B120">
-        <v>0.31705291436628802</v>
+        <v>0.27499990000000002</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>43374</v>
       </c>
       <c r="B121">
-        <v>0.30858917235018901</v>
+        <v>0.248697</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>43466</v>
       </c>
       <c r="B122">
-        <v>0.30852815795959798</v>
+        <v>0.31176900000000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>43556</v>
       </c>
       <c r="B123">
-        <v>0.319884472399938</v>
+        <v>0.40850419999999998</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>43647</v>
       </c>
       <c r="B124">
-        <v>0.29669925909685002</v>
+        <v>0.28423880000000001</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>43739</v>
       </c>
       <c r="B125">
-        <v>0.29385360314936798</v>
+        <v>0.23103750000000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,11 +1350,16 @@
         <v>43831</v>
       </c>
       <c r="B126">
-        <v>0.38794820405012698</v>
+        <v>0.29515409999999997</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B127">
+        <v>0.37350369999999999</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>

--- a/data/raw/others/FGS.xlsx
+++ b/data/raw/others/FGS.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="series" sheetId="1" r:id="rId1"/>
+    <sheet name="dataframe" sheetId="2" r:id="rId1"/>
+    <sheet name="series" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,17 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>FGS</t>
+  </si>
+  <si>
+    <t>FGS_20010214</t>
+  </si>
+  <si>
+    <t>FGS_20010512</t>
+  </si>
+  <si>
+    <t>FGS_20010815</t>
+  </si>
+  <si>
+    <t>FGS_20011114</t>
+  </si>
+  <si>
+    <t>FGS_20080807</t>
+  </si>
+  <si>
+    <t>FGS_20081110</t>
+  </si>
+  <si>
+    <t>FGS_20090210</t>
+  </si>
+  <si>
+    <t>FGS_20090512</t>
+  </si>
+  <si>
+    <t>FGS_20200211</t>
+  </si>
+  <si>
+    <t>FGS_20200512</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m\/d\/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -45,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,13 +101,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,10 +422,3049 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>32509</v>
+      </c>
+      <c r="B2">
+        <v>0.49577029925972699</v>
+      </c>
+      <c r="C2">
+        <v>0.49577261272589801</v>
+      </c>
+      <c r="D2">
+        <v>0.49577398524070498</v>
+      </c>
+      <c r="E2">
+        <v>0.49577160310624402</v>
+      </c>
+      <c r="F2">
+        <v>0.49717668424932898</v>
+      </c>
+      <c r="G2">
+        <v>0.49717669064959502</v>
+      </c>
+      <c r="H2">
+        <v>0.49717668434960599</v>
+      </c>
+      <c r="I2">
+        <v>0.497176684326539</v>
+      </c>
+      <c r="J2">
+        <v>0.49577036924298201</v>
+      </c>
+      <c r="K2">
+        <v>0.49577036924298201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>32599</v>
+      </c>
+      <c r="B3">
+        <v>0.35772557269275201</v>
+      </c>
+      <c r="C3">
+        <v>0.35772365692869001</v>
+      </c>
+      <c r="D3">
+        <v>0.35772229997606297</v>
+      </c>
+      <c r="E3">
+        <v>0.35772506512566399</v>
+      </c>
+      <c r="F3">
+        <v>0.35798733926960202</v>
+      </c>
+      <c r="G3">
+        <v>0.35798733009533401</v>
+      </c>
+      <c r="H3">
+        <v>0.35798733915512398</v>
+      </c>
+      <c r="I3">
+        <v>0.357987339192401</v>
+      </c>
+      <c r="J3">
+        <v>0.35772519346693599</v>
+      </c>
+      <c r="K3">
+        <v>0.35772519346693599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>32690</v>
+      </c>
+      <c r="B4">
+        <v>0.40756327074721399</v>
+      </c>
+      <c r="C4">
+        <v>0.40756258618709501</v>
+      </c>
+      <c r="D4">
+        <v>0.40756009012488398</v>
+      </c>
+      <c r="E4">
+        <v>0.40756413795262603</v>
+      </c>
+      <c r="F4">
+        <v>0.40867822285706001</v>
+      </c>
+      <c r="G4">
+        <v>0.40867816458595102</v>
+      </c>
+      <c r="H4">
+        <v>0.40867822176970198</v>
+      </c>
+      <c r="I4">
+        <v>0.40867822195467202</v>
+      </c>
+      <c r="J4">
+        <v>0.40757122143417202</v>
+      </c>
+      <c r="K4">
+        <v>0.40757122143417202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>32782</v>
+      </c>
+      <c r="B5">
+        <v>0.404845617697079</v>
+      </c>
+      <c r="C5">
+        <v>0.40484598853156001</v>
+      </c>
+      <c r="D5">
+        <v>0.40484875367919498</v>
+      </c>
+      <c r="E5">
+        <v>0.40484379794904901</v>
+      </c>
+      <c r="F5">
+        <v>0.40228942333508699</v>
+      </c>
+      <c r="G5">
+        <v>0.40228948908652801</v>
+      </c>
+      <c r="H5">
+        <v>0.40228942452010402</v>
+      </c>
+      <c r="I5">
+        <v>0.40228942430535602</v>
+      </c>
+      <c r="J5">
+        <v>0.40483726231766398</v>
+      </c>
+      <c r="K5">
+        <v>0.40483726231766398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>32874</v>
+      </c>
+      <c r="B6">
+        <v>0.34264332233744199</v>
+      </c>
+      <c r="C6">
+        <v>0.34264539337453798</v>
+      </c>
+      <c r="D6">
+        <v>0.34264632641720999</v>
+      </c>
+      <c r="E6">
+        <v>0.34264475381050602</v>
+      </c>
+      <c r="F6">
+        <v>0.34353330320561098</v>
+      </c>
+      <c r="G6">
+        <v>0.34353330519749897</v>
+      </c>
+      <c r="H6">
+        <v>0.34353330323008602</v>
+      </c>
+      <c r="I6">
+        <v>0.34353330322194298</v>
+      </c>
+      <c r="J6">
+        <v>0.342644268741358</v>
+      </c>
+      <c r="K6">
+        <v>0.342644268741358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>32964</v>
+      </c>
+      <c r="B7">
+        <v>0.38098764507747201</v>
+      </c>
+      <c r="C7">
+        <v>0.38098621897711199</v>
+      </c>
+      <c r="D7">
+        <v>0.38098523005663198</v>
+      </c>
+      <c r="E7">
+        <v>0.38098734470448498</v>
+      </c>
+      <c r="F7">
+        <v>0.381687272432367</v>
+      </c>
+      <c r="G7">
+        <v>0.38168726360134397</v>
+      </c>
+      <c r="H7">
+        <v>0.38168727231969601</v>
+      </c>
+      <c r="I7">
+        <v>0.38168727235522298</v>
+      </c>
+      <c r="J7">
+        <v>0.38098700746804198</v>
+      </c>
+      <c r="K7">
+        <v>0.38098700746804198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>33055</v>
+      </c>
+      <c r="B8">
+        <v>0.40528662096700002</v>
+      </c>
+      <c r="C8">
+        <v>0.40528543838711401</v>
+      </c>
+      <c r="D8">
+        <v>0.40528237568380099</v>
+      </c>
+      <c r="E8">
+        <v>0.40528740095621502</v>
+      </c>
+      <c r="F8">
+        <v>0.406267806110439</v>
+      </c>
+      <c r="G8">
+        <v>0.40626773847619102</v>
+      </c>
+      <c r="H8">
+        <v>0.40626780485446701</v>
+      </c>
+      <c r="I8">
+        <v>0.40626780507003502</v>
+      </c>
+      <c r="J8">
+        <v>0.40529557734716298</v>
+      </c>
+      <c r="K8">
+        <v>0.40529557734716298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>33147</v>
+      </c>
+      <c r="B9">
+        <v>0.3614358143768</v>
+      </c>
+      <c r="C9">
+        <v>0.36143646801601997</v>
+      </c>
+      <c r="D9">
+        <v>0.361439923332107</v>
+      </c>
+      <c r="E9">
+        <v>0.36143373893477199</v>
+      </c>
+      <c r="F9">
+        <v>0.35882762089308101</v>
+      </c>
+      <c r="G9">
+        <v>0.35882770251577101</v>
+      </c>
+      <c r="H9">
+        <v>0.35882762236525401</v>
+      </c>
+      <c r="I9">
+        <v>0.35882762209882901</v>
+      </c>
+      <c r="J9">
+        <v>0.36142572990551097</v>
+      </c>
+      <c r="K9">
+        <v>0.36142572990551097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>33239</v>
+      </c>
+      <c r="B10">
+        <v>0.40814536232112902</v>
+      </c>
+      <c r="C10">
+        <v>0.40814685980346299</v>
+      </c>
+      <c r="D10">
+        <v>0.40814722744093002</v>
+      </c>
+      <c r="E10">
+        <v>0.40814671512163903</v>
+      </c>
+      <c r="F10">
+        <v>0.40910496192441997</v>
+      </c>
+      <c r="G10">
+        <v>0.40910495790109802</v>
+      </c>
+      <c r="H10">
+        <v>0.40910496184953199</v>
+      </c>
+      <c r="I10">
+        <v>0.40910496186233603</v>
+      </c>
+      <c r="J10">
+        <v>0.40814684249723898</v>
+      </c>
+      <c r="K10">
+        <v>0.40814684249723898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>33329</v>
+      </c>
+      <c r="B11">
+        <v>0.41340084421303203</v>
+      </c>
+      <c r="C11">
+        <v>0.41340052205460598</v>
+      </c>
+      <c r="D11">
+        <v>0.41340008912141701</v>
+      </c>
+      <c r="E11">
+        <v>0.41340117993850001</v>
+      </c>
+      <c r="F11">
+        <v>0.41397184613677801</v>
+      </c>
+      <c r="G11">
+        <v>0.41397183714729802</v>
+      </c>
+      <c r="H11">
+        <v>0.41397184604918702</v>
+      </c>
+      <c r="I11">
+        <v>0.41397184608785398</v>
+      </c>
+      <c r="J11">
+        <v>0.41340068801614999</v>
+      </c>
+      <c r="K11">
+        <v>0.41340068801614999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>33420</v>
+      </c>
+      <c r="B12">
+        <v>0.352645182249745</v>
+      </c>
+      <c r="C12">
+        <v>0.35264301882705001</v>
+      </c>
+      <c r="D12">
+        <v>0.352639159110955</v>
+      </c>
+      <c r="E12">
+        <v>0.35264551056986698</v>
+      </c>
+      <c r="F12">
+        <v>0.35335221781617399</v>
+      </c>
+      <c r="G12">
+        <v>0.35335213870649601</v>
+      </c>
+      <c r="H12">
+        <v>0.35335221657926702</v>
+      </c>
+      <c r="I12">
+        <v>0.35335221685780799</v>
+      </c>
+      <c r="J12">
+        <v>0.35265489363421898</v>
+      </c>
+      <c r="K12">
+        <v>0.35265489363421898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>33512</v>
+      </c>
+      <c r="B13">
+        <v>0.35143951819369601</v>
+      </c>
+      <c r="C13">
+        <v>0.35144038338266598</v>
+      </c>
+      <c r="D13">
+        <v>0.35144457761617098</v>
+      </c>
+      <c r="E13">
+        <v>0.35143688542908502</v>
+      </c>
+      <c r="F13">
+        <v>0.349520179113117</v>
+      </c>
+      <c r="G13">
+        <v>0.34952028182887901</v>
+      </c>
+      <c r="H13">
+        <v>0.349520180223026</v>
+      </c>
+      <c r="I13">
+        <v>0.34952017980470801</v>
+      </c>
+      <c r="J13">
+        <v>0.35142745297289801</v>
+      </c>
+      <c r="K13">
+        <v>0.35142745297289801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>33604</v>
+      </c>
+      <c r="B14">
+        <v>0.39356114851323298</v>
+      </c>
+      <c r="C14">
+        <v>0.39356245541431201</v>
+      </c>
+      <c r="D14">
+        <v>0.393562678051319</v>
+      </c>
+      <c r="E14">
+        <v>0.39356323000159799</v>
+      </c>
+      <c r="F14">
+        <v>0.39421645046392101</v>
+      </c>
+      <c r="G14">
+        <v>0.39421645983283798</v>
+      </c>
+      <c r="H14">
+        <v>0.39421644673551498</v>
+      </c>
+      <c r="I14">
+        <v>0.39421644626890201</v>
+      </c>
+      <c r="J14">
+        <v>0.393563584853383</v>
+      </c>
+      <c r="K14">
+        <v>0.393563584853383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>33695</v>
+      </c>
+      <c r="B15">
+        <v>0.37245996540304599</v>
+      </c>
+      <c r="C15">
+        <v>0.37246108956041202</v>
+      </c>
+      <c r="D15">
+        <v>0.37246154661347702</v>
+      </c>
+      <c r="E15">
+        <v>0.372461967343658</v>
+      </c>
+      <c r="F15">
+        <v>0.37314651510490798</v>
+      </c>
+      <c r="G15">
+        <v>0.37314647682272301</v>
+      </c>
+      <c r="H15">
+        <v>0.37314651915605901</v>
+      </c>
+      <c r="I15">
+        <v>0.37314651981213798</v>
+      </c>
+      <c r="J15">
+        <v>0.372461810894885</v>
+      </c>
+      <c r="K15">
+        <v>0.372461810894885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>33786</v>
+      </c>
+      <c r="B16">
+        <v>0.33446437266130702</v>
+      </c>
+      <c r="C16">
+        <v>0.33446135567100999</v>
+      </c>
+      <c r="D16">
+        <v>0.334454962885324</v>
+      </c>
+      <c r="E16">
+        <v>0.334462310253482</v>
+      </c>
+      <c r="F16">
+        <v>0.334718649259241</v>
+      </c>
+      <c r="G16">
+        <v>0.33471846999661897</v>
+      </c>
+      <c r="H16">
+        <v>0.33471866520167898</v>
+      </c>
+      <c r="I16">
+        <v>0.33471866793197602</v>
+      </c>
+      <c r="J16">
+        <v>0.33447113763290698</v>
+      </c>
+      <c r="K16">
+        <v>0.33447113763290698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>33878</v>
+      </c>
+      <c r="B17">
+        <v>0.413560988870879</v>
+      </c>
+      <c r="C17">
+        <v>0.413560607544317</v>
+      </c>
+      <c r="D17">
+        <v>0.41356225427059101</v>
+      </c>
+      <c r="E17">
+        <v>0.41355820654180597</v>
+      </c>
+      <c r="F17">
+        <v>0.41221173658344701</v>
+      </c>
+      <c r="G17">
+        <v>0.41221195384106601</v>
+      </c>
+      <c r="H17">
+        <v>0.41221171848354898</v>
+      </c>
+      <c r="I17">
+        <v>0.41221171531054002</v>
+      </c>
+      <c r="J17">
+        <v>0.41354427757716999</v>
+      </c>
+      <c r="K17">
+        <v>0.41354427757716999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>33970</v>
+      </c>
+      <c r="B18">
+        <v>0.338950191896774</v>
+      </c>
+      <c r="C18">
+        <v>0.33894982020502201</v>
+      </c>
+      <c r="D18">
+        <v>0.33895945146741402</v>
+      </c>
+      <c r="E18">
+        <v>0.33894994664810701</v>
+      </c>
+      <c r="F18">
+        <v>0.33931169752432699</v>
+      </c>
+      <c r="G18">
+        <v>0.339311895985076</v>
+      </c>
+      <c r="H18">
+        <v>0.339311664106627</v>
+      </c>
+      <c r="I18">
+        <v>0.33931165931892798</v>
+      </c>
+      <c r="J18">
+        <v>0.33896288856530798</v>
+      </c>
+      <c r="K18">
+        <v>0.33896288856530798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>34060</v>
+      </c>
+      <c r="B19">
+        <v>0.31868267351867902</v>
+      </c>
+      <c r="C19">
+        <v>0.318689109730738</v>
+      </c>
+      <c r="D19">
+        <v>0.31869208035569402</v>
+      </c>
+      <c r="E19">
+        <v>0.31869090518771098</v>
+      </c>
+      <c r="F19">
+        <v>0.31948588400417499</v>
+      </c>
+      <c r="G19">
+        <v>0.31948571536772402</v>
+      </c>
+      <c r="H19">
+        <v>0.31948590905777302</v>
+      </c>
+      <c r="I19">
+        <v>0.31948591275233901</v>
+      </c>
+      <c r="J19">
+        <v>0.31869057968401199</v>
+      </c>
+      <c r="K19">
+        <v>0.31869057968401199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>34151</v>
+      </c>
+      <c r="B20">
+        <v>0.33693939807715201</v>
+      </c>
+      <c r="C20">
+        <v>0.33693747406876901</v>
+      </c>
+      <c r="D20">
+        <v>0.33691384703221999</v>
+      </c>
+      <c r="E20">
+        <v>0.336937359851044</v>
+      </c>
+      <c r="F20">
+        <v>0.337037444584944</v>
+      </c>
+      <c r="G20">
+        <v>0.33703680291565402</v>
+      </c>
+      <c r="H20">
+        <v>0.33703753347918902</v>
+      </c>
+      <c r="I20">
+        <v>0.33703754681591402</v>
+      </c>
+      <c r="J20">
+        <v>0.33692912905476802</v>
+      </c>
+      <c r="K20">
+        <v>0.33692912905476802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>34243</v>
+      </c>
+      <c r="B21">
+        <v>0.33884700533269702</v>
+      </c>
+      <c r="C21">
+        <v>0.33884125987603803</v>
+      </c>
+      <c r="D21">
+        <v>0.33883619665207698</v>
+      </c>
+      <c r="E21">
+        <v>0.338842953960802</v>
+      </c>
+      <c r="F21">
+        <v>0.33780472764255798</v>
+      </c>
+      <c r="G21">
+        <v>0.33780524079954999</v>
+      </c>
+      <c r="H21">
+        <v>0.33780466302435003</v>
+      </c>
+      <c r="I21">
+        <v>0.33780465307021101</v>
+      </c>
+      <c r="J21">
+        <v>0.33881249762148502</v>
+      </c>
+      <c r="K21">
+        <v>0.33881249762148502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>34335</v>
+      </c>
+      <c r="B22">
+        <v>0.29760203740264901</v>
+      </c>
+      <c r="C22">
+        <v>0.29759214056439398</v>
+      </c>
+      <c r="D22">
+        <v>0.29763643506168103</v>
+      </c>
+      <c r="E22">
+        <v>0.29758331469797</v>
+      </c>
+      <c r="F22">
+        <v>0.29756093866035199</v>
+      </c>
+      <c r="G22">
+        <v>0.29756174903513799</v>
+      </c>
+      <c r="H22">
+        <v>0.29756080921735001</v>
+      </c>
+      <c r="I22">
+        <v>0.29756079036160499</v>
+      </c>
+      <c r="J22">
+        <v>0.29765600148353699</v>
+      </c>
+      <c r="K22">
+        <v>0.29765600148353699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>34425</v>
+      </c>
+      <c r="B23">
+        <v>0.34621835002773699</v>
+      </c>
+      <c r="C23">
+        <v>0.34624157669070799</v>
+      </c>
+      <c r="D23">
+        <v>0.34624722566307597</v>
+      </c>
+      <c r="E23">
+        <v>0.34624925860456801</v>
+      </c>
+      <c r="F23">
+        <v>0.34738710094689801</v>
+      </c>
+      <c r="G23">
+        <v>0.34738686964444798</v>
+      </c>
+      <c r="H23">
+        <v>0.34738713429319501</v>
+      </c>
+      <c r="I23">
+        <v>0.34738713932385501</v>
+      </c>
+      <c r="J23">
+        <v>0.34624010630241397</v>
+      </c>
+      <c r="K23">
+        <v>0.34624010630241397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>34516</v>
+      </c>
+      <c r="B24">
+        <v>0.33495206730488097</v>
+      </c>
+      <c r="C24">
+        <v>0.33496451979019098</v>
+      </c>
+      <c r="D24">
+        <v>0.33490290972186898</v>
+      </c>
+      <c r="E24">
+        <v>0.33497188373111902</v>
+      </c>
+      <c r="F24">
+        <v>0.334676448494518</v>
+      </c>
+      <c r="G24">
+        <v>0.33467486555315601</v>
+      </c>
+      <c r="H24">
+        <v>0.33467666563399201</v>
+      </c>
+      <c r="I24">
+        <v>0.334676699874285</v>
+      </c>
+      <c r="J24">
+        <v>0.3348986010003</v>
+      </c>
+      <c r="K24">
+        <v>0.3348986010003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>34608</v>
+      </c>
+      <c r="B25">
+        <v>0.35738073345752203</v>
+      </c>
+      <c r="C25">
+        <v>0.35733764965161402</v>
+      </c>
+      <c r="D25">
+        <v>0.35729968725212702</v>
+      </c>
+      <c r="E25">
+        <v>0.35731717346851</v>
+      </c>
+      <c r="F25">
+        <v>0.35653147951636799</v>
+      </c>
+      <c r="G25">
+        <v>0.35653058200405102</v>
+      </c>
+      <c r="H25">
+        <v>0.35653161511257597</v>
+      </c>
+      <c r="I25">
+        <v>0.35653163609849098</v>
+      </c>
+      <c r="J25">
+        <v>0.35730515156758602</v>
+      </c>
+      <c r="K25">
+        <v>0.35730515156758602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>34700</v>
+      </c>
+      <c r="B26">
+        <v>0.30226561237780603</v>
+      </c>
+      <c r="C26">
+        <v>0.30225840709069801</v>
+      </c>
+      <c r="D26">
+        <v>0.30237235836564902</v>
+      </c>
+      <c r="E26">
+        <v>0.30229431829723402</v>
+      </c>
+      <c r="F26">
+        <v>0.30261199890318802</v>
+      </c>
+      <c r="G26">
+        <v>0.30261495849011999</v>
+      </c>
+      <c r="H26">
+        <v>0.30261166223757002</v>
+      </c>
+      <c r="I26">
+        <v>0.30261160049420199</v>
+      </c>
+      <c r="J26">
+        <v>0.30234236786621299</v>
+      </c>
+      <c r="K26">
+        <v>0.30234236786621299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>34790</v>
+      </c>
+      <c r="B27">
+        <v>0.305150011114319</v>
+      </c>
+      <c r="C27">
+        <v>0.30517643734710198</v>
+      </c>
+      <c r="D27">
+        <v>0.30528442025475599</v>
+      </c>
+      <c r="E27">
+        <v>0.305085862174994</v>
+      </c>
+      <c r="F27">
+        <v>0.30586903171949897</v>
+      </c>
+      <c r="G27">
+        <v>0.30587510692874897</v>
+      </c>
+      <c r="H27">
+        <v>0.30586816108924803</v>
+      </c>
+      <c r="I27">
+        <v>0.30586802594324097</v>
+      </c>
+      <c r="J27">
+        <v>0.30538735716468801</v>
+      </c>
+      <c r="K27">
+        <v>0.30538735716468801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>34881</v>
+      </c>
+      <c r="B28">
+        <v>0.35770172363749098</v>
+      </c>
+      <c r="C28">
+        <v>0.35780419269629199</v>
+      </c>
+      <c r="D28">
+        <v>0.35750179512048202</v>
+      </c>
+      <c r="E28">
+        <v>0.35793116618866899</v>
+      </c>
+      <c r="F28">
+        <v>0.35704465428660298</v>
+      </c>
+      <c r="G28">
+        <v>0.35703020691631698</v>
+      </c>
+      <c r="H28">
+        <v>0.35704654884168902</v>
+      </c>
+      <c r="I28">
+        <v>0.35704686144311398</v>
+      </c>
+      <c r="J28">
+        <v>0.357321847381113</v>
+      </c>
+      <c r="K28">
+        <v>0.357321847381113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>34973</v>
+      </c>
+      <c r="B29">
+        <v>0.35673571099753698</v>
+      </c>
+      <c r="C29">
+        <v>0.35656461704510201</v>
+      </c>
+      <c r="D29">
+        <v>0.35659458511650899</v>
+      </c>
+      <c r="E29">
+        <v>0.35649148353375598</v>
+      </c>
+      <c r="F29">
+        <v>0.356464789445046</v>
+      </c>
+      <c r="G29">
+        <v>0.356468801420953</v>
+      </c>
+      <c r="H29">
+        <v>0.35646392204386201</v>
+      </c>
+      <c r="I29">
+        <v>0.35646381877743399</v>
+      </c>
+      <c r="J29">
+        <v>0.35681088047343701</v>
+      </c>
+      <c r="K29">
+        <v>0.35681088047343701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>35065</v>
+      </c>
+      <c r="B30">
+        <v>0.36077779874216598</v>
+      </c>
+      <c r="C30">
+        <v>0.36076397775525798</v>
+      </c>
+      <c r="D30">
+        <v>0.36097063105615501</v>
+      </c>
+      <c r="E30">
+        <v>0.36084173874123499</v>
+      </c>
+      <c r="F30">
+        <v>0.36130540141537898</v>
+      </c>
+      <c r="G30">
+        <v>0.36131123648271002</v>
+      </c>
+      <c r="H30">
+        <v>0.36130520665316301</v>
+      </c>
+      <c r="I30">
+        <v>0.36130510797844101</v>
+      </c>
+      <c r="J30">
+        <v>0.36080714515957801</v>
+      </c>
+      <c r="K30">
+        <v>0.36080714515957801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>35156</v>
+      </c>
+      <c r="B31">
+        <v>0.35730173039441998</v>
+      </c>
+      <c r="C31">
+        <v>0.35740276430505302</v>
+      </c>
+      <c r="D31">
+        <v>0.35762004803512898</v>
+      </c>
+      <c r="E31">
+        <v>0.35717122243930299</v>
+      </c>
+      <c r="F31">
+        <v>0.35730681583795698</v>
+      </c>
+      <c r="G31">
+        <v>0.35731727045587303</v>
+      </c>
+      <c r="H31">
+        <v>0.35730582329869398</v>
+      </c>
+      <c r="I31">
+        <v>0.35730561556279</v>
+      </c>
+      <c r="J31">
+        <v>0.35767325459108301</v>
+      </c>
+      <c r="K31">
+        <v>0.35767325459108301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>35247</v>
+      </c>
+      <c r="B32">
+        <v>0.32363554368844899</v>
+      </c>
+      <c r="C32">
+        <v>0.32387030608892098</v>
+      </c>
+      <c r="D32">
+        <v>0.32328238718418101</v>
+      </c>
+      <c r="E32">
+        <v>0.32409600823637602</v>
+      </c>
+      <c r="F32">
+        <v>0.32339250158910199</v>
+      </c>
+      <c r="G32">
+        <v>0.32336618040819698</v>
+      </c>
+      <c r="H32">
+        <v>0.32339527344886398</v>
+      </c>
+      <c r="I32">
+        <v>0.32339580965005799</v>
+      </c>
+      <c r="J32">
+        <v>0.32304991871554101</v>
+      </c>
+      <c r="K32">
+        <v>0.32304991871554101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>35339</v>
+      </c>
+      <c r="B33">
+        <v>0.30738252485246997</v>
+      </c>
+      <c r="C33">
+        <v>0.30693137204505699</v>
+      </c>
+      <c r="D33">
+        <v>0.30701649649067497</v>
+      </c>
+      <c r="E33">
+        <v>0.30693846414110898</v>
+      </c>
+      <c r="F33">
+        <v>0.307508072880945</v>
+      </c>
+      <c r="G33">
+        <v>0.30751793284659301</v>
+      </c>
+      <c r="H33">
+        <v>0.30750524515585997</v>
+      </c>
+      <c r="I33">
+        <v>0.30750495686036899</v>
+      </c>
+      <c r="J33">
+        <v>0.30772458446916001</v>
+      </c>
+      <c r="K33">
+        <v>0.30772458446916001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>35431</v>
+      </c>
+      <c r="B34">
+        <v>0.34798000722754402</v>
+      </c>
+      <c r="C34">
+        <v>0.347989337442351</v>
+      </c>
+      <c r="D34">
+        <v>0.34831559152363301</v>
+      </c>
+      <c r="E34">
+        <v>0.34807843412039702</v>
+      </c>
+      <c r="F34">
+        <v>0.34800857185999301</v>
+      </c>
+      <c r="G34">
+        <v>0.348016322559212</v>
+      </c>
+      <c r="H34">
+        <v>0.34800900343451402</v>
+      </c>
+      <c r="I34">
+        <v>0.34800890824175601</v>
+      </c>
+      <c r="J34">
+        <v>0.34780898599951099</v>
+      </c>
+      <c r="K34">
+        <v>0.34780898599951099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>35521</v>
+      </c>
+      <c r="B35">
+        <v>0.35341884216356301</v>
+      </c>
+      <c r="C35">
+        <v>0.35379827355190102</v>
+      </c>
+      <c r="D35">
+        <v>0.35413045533665699</v>
+      </c>
+      <c r="E35">
+        <v>0.353266516941804</v>
+      </c>
+      <c r="F35">
+        <v>0.35303129197260802</v>
+      </c>
+      <c r="G35">
+        <v>0.35304168949868597</v>
+      </c>
+      <c r="H35">
+        <v>0.35303322751412097</v>
+      </c>
+      <c r="I35">
+        <v>0.353033169228956</v>
+      </c>
+      <c r="J35">
+        <v>0.35371386755009099</v>
+      </c>
+      <c r="K35">
+        <v>0.35371386755009099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35612</v>
+      </c>
+      <c r="B36">
+        <v>0.33304022409511003</v>
+      </c>
+      <c r="C36">
+        <v>0.33333115982658201</v>
+      </c>
+      <c r="D36">
+        <v>0.33237298088468997</v>
+      </c>
+      <c r="E36">
+        <v>0.33359562108965102</v>
+      </c>
+      <c r="F36">
+        <v>0.333498053578689</v>
+      </c>
+      <c r="G36">
+        <v>0.33346030409792399</v>
+      </c>
+      <c r="H36">
+        <v>0.33350305086638399</v>
+      </c>
+      <c r="I36">
+        <v>0.33350386038667901</v>
+      </c>
+      <c r="J36">
+        <v>0.33237169830476299</v>
+      </c>
+      <c r="K36">
+        <v>0.33237169830476299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35704</v>
+      </c>
+      <c r="B37">
+        <v>0.33198795051637298</v>
+      </c>
+      <c r="C37">
+        <v>0.33068328708314099</v>
+      </c>
+      <c r="D37">
+        <v>0.33107208683081402</v>
+      </c>
+      <c r="E37">
+        <v>0.331323851423517</v>
+      </c>
+      <c r="F37">
+        <v>0.33211636233384001</v>
+      </c>
+      <c r="G37">
+        <v>0.33215019282683</v>
+      </c>
+      <c r="H37">
+        <v>0.33210030614228098</v>
+      </c>
+      <c r="I37">
+        <v>0.33209897843116498</v>
+      </c>
+      <c r="J37">
+        <v>0.33293236328598003</v>
+      </c>
+      <c r="K37">
+        <v>0.33293236328598003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35796</v>
+      </c>
+      <c r="B38">
+        <v>0.39058445670072001</v>
+      </c>
+      <c r="C38">
+        <v>0.39134718946031999</v>
+      </c>
+      <c r="D38">
+        <v>0.39179375728274701</v>
+      </c>
+      <c r="E38">
+        <v>0.39110075958196699</v>
+      </c>
+      <c r="F38">
+        <v>0.390627621964242</v>
+      </c>
+      <c r="G38">
+        <v>0.39062296843441002</v>
+      </c>
+      <c r="H38">
+        <v>0.39063009227372097</v>
+      </c>
+      <c r="I38">
+        <v>0.39063032211086002</v>
+      </c>
+      <c r="J38">
+        <v>0.39044680099866302</v>
+      </c>
+      <c r="K38">
+        <v>0.39044680099866302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>35886</v>
+      </c>
+      <c r="B39">
+        <v>0.395352722485384</v>
+      </c>
+      <c r="C39">
+        <v>0.39591432431316897</v>
+      </c>
+      <c r="D39">
+        <v>0.39533608550879701</v>
+      </c>
+      <c r="E39">
+        <v>0.39457143970116598</v>
+      </c>
+      <c r="F39">
+        <v>0.393345150908814</v>
+      </c>
+      <c r="G39">
+        <v>0.39333677086435398</v>
+      </c>
+      <c r="H39">
+        <v>0.39337013423791101</v>
+      </c>
+      <c r="I39">
+        <v>0.39337153866067498</v>
+      </c>
+      <c r="J39">
+        <v>0.39364735775037102</v>
+      </c>
+      <c r="K39">
+        <v>0.39364735775037102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35977</v>
+      </c>
+      <c r="B40">
+        <v>0.45033549406595802</v>
+      </c>
+      <c r="C40">
+        <v>0.45053651930168398</v>
+      </c>
+      <c r="D40">
+        <v>0.450517393473434</v>
+      </c>
+      <c r="E40">
+        <v>0.45201938972811101</v>
+      </c>
+      <c r="F40">
+        <v>0.45307436612413199</v>
+      </c>
+      <c r="G40">
+        <v>0.45305385800134201</v>
+      </c>
+      <c r="H40">
+        <v>0.45306433746677499</v>
+      </c>
+      <c r="I40">
+        <v>0.45306403553442698</v>
+      </c>
+      <c r="J40">
+        <v>0.45204306233282199</v>
+      </c>
+      <c r="K40">
+        <v>0.45204306233282199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36069</v>
+      </c>
+      <c r="B41">
+        <v>0.390223597379666</v>
+      </c>
+      <c r="C41">
+        <v>0.38790405647363002</v>
+      </c>
+      <c r="D41">
+        <v>0.38833935390456698</v>
+      </c>
+      <c r="E41">
+        <v>0.38822136811149399</v>
+      </c>
+      <c r="F41">
+        <v>0.39011482383714302</v>
+      </c>
+      <c r="G41">
+        <v>0.39016554314082602</v>
+      </c>
+      <c r="H41">
+        <v>0.39008463611416599</v>
+      </c>
+      <c r="I41">
+        <v>0.39008229212300899</v>
+      </c>
+      <c r="J41">
+        <v>0.39138245680529199</v>
+      </c>
+      <c r="K41">
+        <v>0.39138245680529199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>36161</v>
+      </c>
+      <c r="B42">
+        <v>0.367140246189613</v>
+      </c>
+      <c r="C42">
+        <v>0.36878209196350198</v>
+      </c>
+      <c r="D42">
+        <v>0.369179128109071</v>
+      </c>
+      <c r="E42">
+        <v>0.36834090884454002</v>
+      </c>
+      <c r="F42">
+        <v>0.36594947009775097</v>
+      </c>
+      <c r="G42">
+        <v>0.365926851355311</v>
+      </c>
+      <c r="H42">
+        <v>0.365959963517554</v>
+      </c>
+      <c r="I42">
+        <v>0.365961288854184</v>
+      </c>
+      <c r="J42">
+        <v>0.36520650843744901</v>
+      </c>
+      <c r="K42">
+        <v>0.36520650843744901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>36251</v>
+      </c>
+      <c r="B43">
+        <v>0.34217211288372301</v>
+      </c>
+      <c r="C43">
+        <v>0.34311982964069498</v>
+      </c>
+      <c r="D43">
+        <v>0.34144597414442501</v>
+      </c>
+      <c r="E43">
+        <v>0.34099335161928801</v>
+      </c>
+      <c r="F43">
+        <v>0.340174447900497</v>
+      </c>
+      <c r="G43">
+        <v>0.34015112518344598</v>
+      </c>
+      <c r="H43">
+        <v>0.34022118475069102</v>
+      </c>
+      <c r="I43">
+        <v>0.34022374676533101</v>
+      </c>
+      <c r="J43">
+        <v>0.340138956496219</v>
+      </c>
+      <c r="K43">
+        <v>0.340138956496219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>36342</v>
+      </c>
+      <c r="B44">
+        <v>0.34630165586133699</v>
+      </c>
+      <c r="C44">
+        <v>0.34626393305090403</v>
+      </c>
+      <c r="D44">
+        <v>0.347378102966656</v>
+      </c>
+      <c r="E44">
+        <v>0.34930580737619799</v>
+      </c>
+      <c r="F44">
+        <v>0.34935802931589799</v>
+      </c>
+      <c r="G44">
+        <v>0.34935156382006</v>
+      </c>
+      <c r="H44">
+        <v>0.34933133329913801</v>
+      </c>
+      <c r="I44">
+        <v>0.34932931841144899</v>
+      </c>
+      <c r="J44">
+        <v>0.34923652329640698</v>
+      </c>
+      <c r="K44">
+        <v>0.34923652329640698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>36434</v>
+      </c>
+      <c r="B45">
+        <v>0.39325068092543197</v>
+      </c>
+      <c r="C45">
+        <v>0.389840838231645</v>
+      </c>
+      <c r="D45">
+        <v>0.39040218196301102</v>
+      </c>
+      <c r="E45">
+        <v>0.38943303283788</v>
+      </c>
+      <c r="F45">
+        <v>0.396121872437597</v>
+      </c>
+      <c r="G45">
+        <v>0.39619321544529101</v>
+      </c>
+      <c r="H45">
+        <v>0.39607717344907301</v>
+      </c>
+      <c r="I45">
+        <v>0.39607393117305401</v>
+      </c>
+      <c r="J45">
+        <v>0.39759856746029698</v>
+      </c>
+      <c r="K45">
+        <v>0.39759856746029698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>36526</v>
+      </c>
+      <c r="B46">
+        <v>0.38414814487599502</v>
+      </c>
+      <c r="C46">
+        <v>0.38681959681530698</v>
+      </c>
+      <c r="D46">
+        <v>0.38700276166098901</v>
+      </c>
+      <c r="E46">
+        <v>0.38612663333175101</v>
+      </c>
+      <c r="F46">
+        <v>0.37744027684408199</v>
+      </c>
+      <c r="G46">
+        <v>0.37739751967037999</v>
+      </c>
+      <c r="H46">
+        <v>0.377460605025917</v>
+      </c>
+      <c r="I46">
+        <v>0.37746372874767697</v>
+      </c>
+      <c r="J46">
+        <v>0.37601690961431</v>
+      </c>
+      <c r="K46">
+        <v>0.37601690961431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>36617</v>
+      </c>
+      <c r="B47">
+        <v>0.37935379020304899</v>
+      </c>
+      <c r="C47">
+        <v>0.380491355869918</v>
+      </c>
+      <c r="D47">
+        <v>0.37722996037545797</v>
+      </c>
+      <c r="E47">
+        <v>0.37763241829545802</v>
+      </c>
+      <c r="F47">
+        <v>0.37859122760450198</v>
+      </c>
+      <c r="G47">
+        <v>0.37855021426794999</v>
+      </c>
+      <c r="H47">
+        <v>0.37865994800295599</v>
+      </c>
+      <c r="I47">
+        <v>0.378663730468834</v>
+      </c>
+      <c r="J47">
+        <v>0.37791943645339099</v>
+      </c>
+      <c r="K47">
+        <v>0.37791943645339099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>36708</v>
+      </c>
+      <c r="B48">
+        <v>0.405222849828069</v>
+      </c>
+      <c r="C48">
+        <v>0.40496996472528901</v>
+      </c>
+      <c r="D48">
+        <v>0.40825136697048298</v>
+      </c>
+      <c r="E48">
+        <v>0.41064261166722998</v>
+      </c>
+      <c r="F48">
+        <v>0.41249218037247798</v>
+      </c>
+      <c r="G48">
+        <v>0.412513826113654</v>
+      </c>
+      <c r="H48">
+        <v>0.41245384898981502</v>
+      </c>
+      <c r="I48">
+        <v>0.41245079263909201</v>
+      </c>
+      <c r="J48">
+        <v>0.41331305864901702</v>
+      </c>
+      <c r="K48">
+        <v>0.41331305864901702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>36800</v>
+      </c>
+      <c r="B49">
+        <v>0.42233036757852999</v>
+      </c>
+      <c r="C49">
+        <v>0.41827160818362702</v>
+      </c>
+      <c r="D49">
+        <v>0.41847764509228602</v>
+      </c>
+      <c r="E49">
+        <v>0.41552698177927699</v>
+      </c>
+      <c r="F49">
+        <v>0.42565089310041998</v>
+      </c>
+      <c r="G49">
+        <v>0.42572048293643999</v>
+      </c>
+      <c r="H49">
+        <v>0.42557100170906897</v>
+      </c>
+      <c r="I49">
+        <v>0.42556211421993301</v>
+      </c>
+      <c r="J49">
+        <v>0.42724011728879002</v>
+      </c>
+      <c r="K49">
+        <v>0.42724011728879002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>36892</v>
+      </c>
+      <c r="B50">
+        <v>0.41316594383492899</v>
+      </c>
+      <c r="C50">
+        <v>0.41602349354948198</v>
+      </c>
+      <c r="D50">
+        <v>0.41563471112335099</v>
+      </c>
+      <c r="E50">
+        <v>0.41537322092699602</v>
+      </c>
+      <c r="F50">
+        <v>0.39795648725266303</v>
+      </c>
+      <c r="G50">
+        <v>0.39790202182807499</v>
+      </c>
+      <c r="H50">
+        <v>0.39801091827097301</v>
+      </c>
+      <c r="I50">
+        <v>0.39802049304966602</v>
+      </c>
+      <c r="J50">
+        <v>0.396327447655965</v>
+      </c>
+      <c r="K50">
+        <v>0.396327447655965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>36982</v>
+      </c>
+      <c r="C51">
+        <v>0.47575073819738101</v>
+      </c>
+      <c r="D51">
+        <v>0.47182390068243601</v>
+      </c>
+      <c r="E51">
+        <v>0.47293553020414603</v>
+      </c>
+      <c r="F51">
+        <v>0.47693056319719901</v>
+      </c>
+      <c r="G51">
+        <v>0.47688057352729002</v>
+      </c>
+      <c r="H51">
+        <v>0.47703511531607301</v>
+      </c>
+      <c r="I51">
+        <v>0.477046184970286</v>
+      </c>
+      <c r="J51">
+        <v>0.47575971054904997</v>
+      </c>
+      <c r="K51">
+        <v>0.47575971054904997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>37073</v>
+      </c>
+      <c r="D52">
+        <v>0.38064332227373399</v>
+      </c>
+      <c r="E52">
+        <v>0.38310818660488799</v>
+      </c>
+      <c r="F52">
+        <v>0.387663325205231</v>
+      </c>
+      <c r="G52">
+        <v>0.38770395386185902</v>
+      </c>
+      <c r="H52">
+        <v>0.38758815346889203</v>
+      </c>
+      <c r="I52">
+        <v>0.38757737537633102</v>
+      </c>
+      <c r="J52">
+        <v>0.38927306172179998</v>
+      </c>
+      <c r="K52">
+        <v>0.38927306172179998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>37165</v>
+      </c>
+      <c r="E53">
+        <v>0.37554189617543599</v>
+      </c>
+      <c r="F53">
+        <v>0.39199660472243297</v>
+      </c>
+      <c r="G53">
+        <v>0.39208843954420702</v>
+      </c>
+      <c r="H53">
+        <v>0.39177372817949502</v>
+      </c>
+      <c r="I53">
+        <v>0.39173626510772902</v>
+      </c>
+      <c r="J53">
+        <v>0.39260075821575602</v>
+      </c>
+      <c r="K53">
+        <v>0.39260075821575602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>37257</v>
+      </c>
+      <c r="F54">
+        <v>0.36956947725780598</v>
+      </c>
+      <c r="G54">
+        <v>0.36946378555607201</v>
+      </c>
+      <c r="H54">
+        <v>0.369906573170734</v>
+      </c>
+      <c r="I54">
+        <v>0.36997120108737802</v>
+      </c>
+      <c r="J54">
+        <v>0.36871087965419003</v>
+      </c>
+      <c r="K54">
+        <v>0.36871087965419003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>37347</v>
+      </c>
+      <c r="F55">
+        <v>0.34598358448238598</v>
+      </c>
+      <c r="G55">
+        <v>0.34596715513419501</v>
+      </c>
+      <c r="H55">
+        <v>0.345999102433523</v>
+      </c>
+      <c r="I55">
+        <v>0.345981245519831</v>
+      </c>
+      <c r="J55">
+        <v>0.34526717819296898</v>
+      </c>
+      <c r="K55">
+        <v>0.34526717819296898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>37438</v>
+      </c>
+      <c r="F56">
+        <v>0.38070080489318397</v>
+      </c>
+      <c r="G56">
+        <v>0.38073768828855598</v>
+      </c>
+      <c r="H56">
+        <v>0.38048956485017998</v>
+      </c>
+      <c r="I56">
+        <v>0.38047025711677601</v>
+      </c>
+      <c r="J56">
+        <v>0.38153446789533502</v>
+      </c>
+      <c r="K56">
+        <v>0.38153446789533502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>37530</v>
+      </c>
+      <c r="F57">
+        <v>0.27963217086752701</v>
+      </c>
+      <c r="G57">
+        <v>0.27969090398768998</v>
+      </c>
+      <c r="H57">
+        <v>0.27930745972374599</v>
+      </c>
+      <c r="I57">
+        <v>0.27925803796130699</v>
+      </c>
+      <c r="J57">
+        <v>0.27942371727648901</v>
+      </c>
+      <c r="K57">
+        <v>0.27942371727648901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>37622</v>
+      </c>
+      <c r="F58">
+        <v>0.30982844957027</v>
+      </c>
+      <c r="G58">
+        <v>0.30972490958237198</v>
+      </c>
+      <c r="H58">
+        <v>0.310568954778986</v>
+      </c>
+      <c r="I58">
+        <v>0.310699787218565</v>
+      </c>
+      <c r="J58">
+        <v>0.31030816498516101</v>
+      </c>
+      <c r="K58">
+        <v>0.31030816498516101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>37712</v>
+      </c>
+      <c r="F59">
+        <v>0.26434959379922002</v>
+      </c>
+      <c r="G59">
+        <v>0.26443388518690097</v>
+      </c>
+      <c r="H59">
+        <v>0.26427642498912901</v>
+      </c>
+      <c r="I59">
+        <v>0.26420478798474001</v>
+      </c>
+      <c r="J59">
+        <v>0.26390532857647903</v>
+      </c>
+      <c r="K59">
+        <v>0.26390532857647903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>37803</v>
+      </c>
+      <c r="F60">
+        <v>0.264870051961484</v>
+      </c>
+      <c r="G60">
+        <v>0.26483141004298699</v>
+      </c>
+      <c r="H60">
+        <v>0.26436505831999402</v>
+      </c>
+      <c r="I60">
+        <v>0.26433365348626697</v>
+      </c>
+      <c r="J60">
+        <v>0.264778441559264</v>
+      </c>
+      <c r="K60">
+        <v>0.264778441559264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>37895</v>
+      </c>
+      <c r="F61">
+        <v>0.33691580204705102</v>
+      </c>
+      <c r="G61">
+        <v>0.33693331035528201</v>
+      </c>
+      <c r="H61">
+        <v>0.33643328072356798</v>
+      </c>
+      <c r="I61">
+        <v>0.33638136029993398</v>
+      </c>
+      <c r="J61">
+        <v>0.33632114096655102</v>
+      </c>
+      <c r="K61">
+        <v>0.33632114096655102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>37987</v>
+      </c>
+      <c r="F62">
+        <v>0.26676170867750298</v>
+      </c>
+      <c r="G62">
+        <v>0.26655347192908302</v>
+      </c>
+      <c r="H62">
+        <v>0.268065182013842</v>
+      </c>
+      <c r="I62">
+        <v>0.26829810163889001</v>
+      </c>
+      <c r="J62">
+        <v>0.26832756713769002</v>
+      </c>
+      <c r="K62">
+        <v>0.26832756713769002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>38078</v>
+      </c>
+      <c r="F63">
+        <v>0.28358850039779698</v>
+      </c>
+      <c r="G63">
+        <v>0.28408007061865598</v>
+      </c>
+      <c r="H63">
+        <v>0.28384530044269102</v>
+      </c>
+      <c r="I63">
+        <v>0.28371886081453901</v>
+      </c>
+      <c r="J63">
+        <v>0.28365222302924498</v>
+      </c>
+      <c r="K63">
+        <v>0.28365222302924498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>38169</v>
+      </c>
+      <c r="F64">
+        <v>0.28204352319784398</v>
+      </c>
+      <c r="G64">
+        <v>0.28185315219345197</v>
+      </c>
+      <c r="H64">
+        <v>0.28082950285938602</v>
+      </c>
+      <c r="I64">
+        <v>0.28059413825171398</v>
+      </c>
+      <c r="J64">
+        <v>0.27998935018940802</v>
+      </c>
+      <c r="K64">
+        <v>0.27998935018940802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>38261</v>
+      </c>
+      <c r="F65">
+        <v>0.30041355557069999</v>
+      </c>
+      <c r="G65">
+        <v>0.30000501525921203</v>
+      </c>
+      <c r="H65">
+        <v>0.298562085101507</v>
+      </c>
+      <c r="I65">
+        <v>0.29856085087593598</v>
+      </c>
+      <c r="J65">
+        <v>0.299198176171736</v>
+      </c>
+      <c r="K65">
+        <v>0.299198176171736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>38353</v>
+      </c>
+      <c r="F66">
+        <v>0.44457006546386202</v>
+      </c>
+      <c r="G66">
+        <v>0.44437672003719703</v>
+      </c>
+      <c r="H66">
+        <v>0.44813482603143001</v>
+      </c>
+      <c r="I66">
+        <v>0.44925667244384898</v>
+      </c>
+      <c r="J66">
+        <v>0.45072636255059401</v>
+      </c>
+      <c r="K66">
+        <v>0.45072636255059401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>38443</v>
+      </c>
+      <c r="F67">
+        <v>0.35124406434438599</v>
+      </c>
+      <c r="G67">
+        <v>0.351898084004034</v>
+      </c>
+      <c r="H67">
+        <v>0.35132015760091401</v>
+      </c>
+      <c r="I67">
+        <v>0.35009295485018699</v>
+      </c>
+      <c r="J67">
+        <v>0.34737938630135701</v>
+      </c>
+      <c r="K67">
+        <v>0.34737938630135701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>38534</v>
+      </c>
+      <c r="F68">
+        <v>0.32672368231600402</v>
+      </c>
+      <c r="G68">
+        <v>0.32718475296426303</v>
+      </c>
+      <c r="H68">
+        <v>0.325661088725542</v>
+      </c>
+      <c r="I68">
+        <v>0.32547788622513302</v>
+      </c>
+      <c r="J68">
+        <v>0.32513784720983702</v>
+      </c>
+      <c r="K68">
+        <v>0.32513784720983702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>38626</v>
+      </c>
+      <c r="F69">
+        <v>0.36179141691505801</v>
+      </c>
+      <c r="G69">
+        <v>0.36077929251057</v>
+      </c>
+      <c r="H69">
+        <v>0.35630618826478599</v>
+      </c>
+      <c r="I69">
+        <v>0.35612804626539701</v>
+      </c>
+      <c r="J69">
+        <v>0.35876312897767398</v>
+      </c>
+      <c r="K69">
+        <v>0.35876312897767398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>38718</v>
+      </c>
+      <c r="F70">
+        <v>0.36355826128631102</v>
+      </c>
+      <c r="G70">
+        <v>0.36310732121306999</v>
+      </c>
+      <c r="H70">
+        <v>0.37134670726771801</v>
+      </c>
+      <c r="I70">
+        <v>0.37466974335716202</v>
+      </c>
+      <c r="J70">
+        <v>0.37656244669045402</v>
+      </c>
+      <c r="K70">
+        <v>0.37656244669045402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>38808</v>
+      </c>
+      <c r="F71">
+        <v>0.350721846125509</v>
+      </c>
+      <c r="G71">
+        <v>0.35150684620102601</v>
+      </c>
+      <c r="H71">
+        <v>0.350303280788824</v>
+      </c>
+      <c r="I71">
+        <v>0.34655581729088702</v>
+      </c>
+      <c r="J71">
+        <v>0.34098933230874001</v>
+      </c>
+      <c r="K71">
+        <v>0.34098933230874001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>38899</v>
+      </c>
+      <c r="F72">
+        <v>0.366767659685451</v>
+      </c>
+      <c r="G72">
+        <v>0.36810311141795299</v>
+      </c>
+      <c r="H72">
+        <v>0.36586278136373801</v>
+      </c>
+      <c r="I72">
+        <v>0.365951998342672</v>
+      </c>
+      <c r="J72">
+        <v>0.36493720672172297</v>
+      </c>
+      <c r="K72">
+        <v>0.36493720672172297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>38991</v>
+      </c>
+      <c r="F73">
+        <v>0.35560599879133298</v>
+      </c>
+      <c r="G73">
+        <v>0.35379672485711899</v>
+      </c>
+      <c r="H73">
+        <v>0.34574270205447399</v>
+      </c>
+      <c r="I73">
+        <v>0.34548997517209201</v>
+      </c>
+      <c r="J73">
+        <v>0.35176750314649202</v>
+      </c>
+      <c r="K73">
+        <v>0.35176750314649202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>39083</v>
+      </c>
+      <c r="F74">
+        <v>0.32538876352645502</v>
+      </c>
+      <c r="G74">
+        <v>0.32479113045833802</v>
+      </c>
+      <c r="H74">
+        <v>0.33808961133628701</v>
+      </c>
+      <c r="I74">
+        <v>0.344010933041557</v>
+      </c>
+      <c r="J74">
+        <v>0.34702940186999298</v>
+      </c>
+      <c r="K74">
+        <v>0.34702940186999298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>39173</v>
+      </c>
+      <c r="F75">
+        <v>0.389308565678258</v>
+      </c>
+      <c r="G75">
+        <v>0.38980498874102898</v>
+      </c>
+      <c r="H75">
+        <v>0.38779659835987601</v>
+      </c>
+      <c r="I75">
+        <v>0.38112585815965699</v>
+      </c>
+      <c r="J75">
+        <v>0.37087434470541603</v>
+      </c>
+      <c r="K75">
+        <v>0.37087434470541603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>39264</v>
+      </c>
+      <c r="F76">
+        <v>0.38895466881115498</v>
+      </c>
+      <c r="G76">
+        <v>0.391166446262043</v>
+      </c>
+      <c r="H76">
+        <v>0.388493051542315</v>
+      </c>
+      <c r="I76">
+        <v>0.38906240474153297</v>
+      </c>
+      <c r="J76">
+        <v>0.38701461554363398</v>
+      </c>
+      <c r="K76">
+        <v>0.38701461554363398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>39356</v>
+      </c>
+      <c r="F77">
+        <v>0.38652727987246099</v>
+      </c>
+      <c r="G77">
+        <v>0.38492618734779999</v>
+      </c>
+      <c r="H77">
+        <v>0.37350129270198001</v>
+      </c>
+      <c r="I77">
+        <v>0.37311442676369699</v>
+      </c>
+      <c r="J77">
+        <v>0.38471110823407101</v>
+      </c>
+      <c r="K77">
+        <v>0.38471110823407101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>39448</v>
+      </c>
+      <c r="F78">
+        <v>0.44764075440823498</v>
+      </c>
+      <c r="G78">
+        <v>0.44654402570830698</v>
+      </c>
+      <c r="H78">
+        <v>0.46381964871055598</v>
+      </c>
+      <c r="I78">
+        <v>0.47207432872566202</v>
+      </c>
+      <c r="J78">
+        <v>0.47566171610052599</v>
+      </c>
+      <c r="K78">
+        <v>0.47566171610052599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>39539</v>
+      </c>
+      <c r="F79">
+        <v>0.359690748071607</v>
+      </c>
+      <c r="G79">
+        <v>0.36030886424206499</v>
+      </c>
+      <c r="H79">
+        <v>0.35783144812269901</v>
+      </c>
+      <c r="I79">
+        <v>0.34862038243622101</v>
+      </c>
+      <c r="J79">
+        <v>0.33358762820536397</v>
+      </c>
+      <c r="K79">
+        <v>0.33358762820536397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>39630</v>
+      </c>
+      <c r="F80">
+        <v>0.40758284831271202</v>
+      </c>
+      <c r="G80">
+        <v>0.41033688177104699</v>
+      </c>
+      <c r="H80">
+        <v>0.40705255786831002</v>
+      </c>
+      <c r="I80">
+        <v>0.40798501927627601</v>
+      </c>
+      <c r="J80">
+        <v>0.40460000814013503</v>
+      </c>
+      <c r="K80">
+        <v>0.40460000814013503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>39722</v>
+      </c>
+      <c r="G81">
+        <v>0.43625259260907001</v>
+      </c>
+      <c r="H81">
+        <v>0.42357011937106898</v>
+      </c>
+      <c r="I81">
+        <v>0.42299227876746198</v>
+      </c>
+      <c r="J81">
+        <v>0.43933864345424001</v>
+      </c>
+      <c r="K81">
+        <v>0.43933864345424001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>39814</v>
+      </c>
+      <c r="H82">
+        <v>0.36159676170816601</v>
+      </c>
+      <c r="I82">
+        <v>0.37034658465207398</v>
+      </c>
+      <c r="J82">
+        <v>0.37664639339817502</v>
+      </c>
+      <c r="K82">
+        <v>0.37664639339817502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>39904</v>
+      </c>
+      <c r="I83">
+        <v>0.422310293927394</v>
+      </c>
+      <c r="J83">
+        <v>0.40132493910766398</v>
+      </c>
+      <c r="K83">
+        <v>0.40132493910766398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>39995</v>
+      </c>
+      <c r="J84">
+        <v>0.33799332778497598</v>
+      </c>
+      <c r="K84">
+        <v>0.33799332778497598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>40087</v>
+      </c>
+      <c r="J85">
+        <v>0.28064779650724098</v>
+      </c>
+      <c r="K85">
+        <v>0.28064779650724098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>40179</v>
+      </c>
+      <c r="J86">
+        <v>0.27138607745384802</v>
+      </c>
+      <c r="K86">
+        <v>0.27138607745384802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>40269</v>
+      </c>
+      <c r="J87">
+        <v>0.27739257158799602</v>
+      </c>
+      <c r="K87">
+        <v>0.27739257158799602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>40360</v>
+      </c>
+      <c r="J88">
+        <v>0.31228725124583301</v>
+      </c>
+      <c r="K88">
+        <v>0.31228725124583301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>40452</v>
+      </c>
+      <c r="J89">
+        <v>0.312811916325203</v>
+      </c>
+      <c r="K89">
+        <v>0.312811916325203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>40544</v>
+      </c>
+      <c r="J90">
+        <v>0.31413906597051</v>
+      </c>
+      <c r="K90">
+        <v>0.31413906597051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>40634</v>
+      </c>
+      <c r="J91">
+        <v>0.30216941453977703</v>
+      </c>
+      <c r="K91">
+        <v>0.30216941453977703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>40725</v>
+      </c>
+      <c r="J92">
+        <v>0.287619981143655</v>
+      </c>
+      <c r="K92">
+        <v>0.287619981143655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>40817</v>
+      </c>
+      <c r="J93">
+        <v>0.294151434124372</v>
+      </c>
+      <c r="K93">
+        <v>0.294151434124372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>40909</v>
+      </c>
+      <c r="J94">
+        <v>0.28508600254885402</v>
+      </c>
+      <c r="K94">
+        <v>0.28508600254885402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J95">
+        <v>0.32299719544587702</v>
+      </c>
+      <c r="K95">
+        <v>0.32299719544587702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>41091</v>
+      </c>
+      <c r="J96">
+        <v>0.32463182413441199</v>
+      </c>
+      <c r="K96">
+        <v>0.32463182413441199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>41183</v>
+      </c>
+      <c r="J97">
+        <v>0.330462078200498</v>
+      </c>
+      <c r="K97">
+        <v>0.330462078200498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>41275</v>
+      </c>
+      <c r="J98">
+        <v>0.375138635615473</v>
+      </c>
+      <c r="K98">
+        <v>0.375138635615473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>41365</v>
+      </c>
+      <c r="J99">
+        <v>0.321654384130377</v>
+      </c>
+      <c r="K99">
+        <v>0.321654384130377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>41456</v>
+      </c>
+      <c r="J100">
+        <v>0.33200741248670701</v>
+      </c>
+      <c r="K100">
+        <v>0.33200741248670701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>41548</v>
+      </c>
+      <c r="J101">
+        <v>0.33708145647856103</v>
+      </c>
+      <c r="K101">
+        <v>0.33708145647856103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>41640</v>
+      </c>
+      <c r="J102">
+        <v>0.29274760015844498</v>
+      </c>
+      <c r="K102">
+        <v>0.29274760015844498</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>41730</v>
+      </c>
+      <c r="J103">
+        <v>0.25708552031244902</v>
+      </c>
+      <c r="K103">
+        <v>0.25708552031244902</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>41821</v>
+      </c>
+      <c r="J104">
+        <v>0.38593591666086202</v>
+      </c>
+      <c r="K104">
+        <v>0.38593591666086202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>41913</v>
+      </c>
+      <c r="J105">
+        <v>0.36046139529298099</v>
+      </c>
+      <c r="K105">
+        <v>0.36046139529298099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J106">
+        <v>0.40680096761974899</v>
+      </c>
+      <c r="K106">
+        <v>0.40680096761974899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J107">
+        <v>0.41876580743810699</v>
+      </c>
+      <c r="K107">
+        <v>0.41876580743810699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J108">
+        <v>0.38077741515475499</v>
+      </c>
+      <c r="K108">
+        <v>0.38077741515475499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J109">
+        <v>0.365538181781494</v>
+      </c>
+      <c r="K109">
+        <v>0.365538181781494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>42370</v>
+      </c>
+      <c r="J110">
+        <v>0.37481263245521301</v>
+      </c>
+      <c r="K110">
+        <v>0.37481263245521301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>42461</v>
+      </c>
+      <c r="J111">
+        <v>0.409442266561094</v>
+      </c>
+      <c r="K111">
+        <v>0.409442266561094</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>42552</v>
+      </c>
+      <c r="J112">
+        <v>0.38264184024870501</v>
+      </c>
+      <c r="K112">
+        <v>0.38264184024870501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>42644</v>
+      </c>
+      <c r="J113">
+        <v>0.32760744595755098</v>
+      </c>
+      <c r="K113">
+        <v>0.32760744595755098</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>42736</v>
+      </c>
+      <c r="J114">
+        <v>0.35101959948766998</v>
+      </c>
+      <c r="K114">
+        <v>0.35101959948766998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>42826</v>
+      </c>
+      <c r="J115">
+        <v>0.34742018920047502</v>
+      </c>
+      <c r="K115">
+        <v>0.34742018920047502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>42917</v>
+      </c>
+      <c r="J116">
+        <v>0.332638403329375</v>
+      </c>
+      <c r="K116">
+        <v>0.332638403329375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>43009</v>
+      </c>
+      <c r="J117">
+        <v>0.37449360852166103</v>
+      </c>
+      <c r="K117">
+        <v>0.37449360852166103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>43101</v>
+      </c>
+      <c r="J118">
+        <v>0.31829896266900598</v>
+      </c>
+      <c r="K118">
+        <v>0.31829896266900598</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>43191</v>
+      </c>
+      <c r="J119">
+        <v>0.28868892175306998</v>
+      </c>
+      <c r="K119">
+        <v>0.28868892175306998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>43282</v>
+      </c>
+      <c r="J120">
+        <v>0.31799640994946299</v>
+      </c>
+      <c r="K120">
+        <v>0.31799640994946299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>43374</v>
+      </c>
+      <c r="J121">
+        <v>0.319181384100101</v>
+      </c>
+      <c r="K121">
+        <v>0.319181384100101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>43466</v>
+      </c>
+      <c r="J122">
+        <v>0.29747156233264399</v>
+      </c>
+      <c r="K122">
+        <v>0.29747156233264399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>43556</v>
+      </c>
+      <c r="J123">
+        <v>0.30971507672382398</v>
+      </c>
+      <c r="K123">
+        <v>0.30971507672382398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>43647</v>
+      </c>
+      <c r="J124">
+        <v>0.32863754804731499</v>
+      </c>
+      <c r="K124">
+        <v>0.32863754804731499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>43739</v>
+      </c>
+      <c r="J125">
+        <v>0.29905440536158601</v>
+      </c>
+      <c r="K125">
+        <v>0.29905440536158601</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>43831</v>
+      </c>
+      <c r="J126">
+        <v>0.28181750372363801</v>
+      </c>
+      <c r="K126">
+        <v>0.28181750372363801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>43922</v>
+      </c>
+      <c r="J127">
+        <v>0.39925273936012001</v>
+      </c>
+      <c r="K127">
+        <v>0.39925273936012001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,7 +3479,7 @@
         <v>32509</v>
       </c>
       <c r="B2">
-        <v>0.44321290000000002</v>
+        <v>0.49577036924298201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -366,7 +3487,7 @@
         <v>32599</v>
       </c>
       <c r="B3">
-        <v>0.46050350000000001</v>
+        <v>0.35772519346693599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -374,7 +3495,7 @@
         <v>32690</v>
       </c>
       <c r="B4">
-        <v>0.37897730000000002</v>
+        <v>0.40757122143417202</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -382,7 +3503,7 @@
         <v>32782</v>
       </c>
       <c r="B5">
-        <v>0.38402829999999999</v>
+        <v>0.40483726231766398</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +3511,7 @@
         <v>32874</v>
       </c>
       <c r="B6">
-        <v>0.28938659999999999</v>
+        <v>0.342644268741358</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +3519,7 @@
         <v>32964</v>
       </c>
       <c r="B7">
-        <v>0.48312149999999998</v>
+        <v>0.38098700746804198</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,7 +3527,7 @@
         <v>33055</v>
       </c>
       <c r="B8">
-        <v>0.37586350000000002</v>
+        <v>0.40529557734716298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,7 +3535,7 @@
         <v>33147</v>
       </c>
       <c r="B9">
-        <v>0.34515570000000001</v>
+        <v>0.36142572990551097</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +3543,7 @@
         <v>33239</v>
       </c>
       <c r="B10">
-        <v>0.35012720000000003</v>
+        <v>0.40814684249723898</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +3551,7 @@
         <v>33329</v>
       </c>
       <c r="B11">
-        <v>0.51713480000000001</v>
+        <v>0.41340068801614999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +3559,7 @@
         <v>33420</v>
       </c>
       <c r="B12">
-        <v>0.32080160000000002</v>
+        <v>0.35265489363421898</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +3567,7 @@
         <v>33512</v>
       </c>
       <c r="B13">
-        <v>0.34178459999999999</v>
+        <v>0.35142745297289801</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +3575,7 @@
         <v>33604</v>
       </c>
       <c r="B14">
-        <v>0.33039760000000001</v>
+        <v>0.393563584853383</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +3583,7 @@
         <v>33695</v>
       </c>
       <c r="B15">
-        <v>0.47565039999999997</v>
+        <v>0.372461810894885</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +3591,7 @@
         <v>33786</v>
       </c>
       <c r="B16">
-        <v>0.30205280000000001</v>
+        <v>0.33447113763290698</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +3599,7 @@
         <v>33878</v>
       </c>
       <c r="B17">
-        <v>0.4101264</v>
+        <v>0.41354427757716999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +3607,7 @@
         <v>33970</v>
       </c>
       <c r="B18">
-        <v>0.27108280000000001</v>
+        <v>0.33896288856530798</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +3615,7 @@
         <v>34060</v>
       </c>
       <c r="B19">
-        <v>0.42040169999999999</v>
+        <v>0.31869057968401199</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +3623,7 @@
         <v>34151</v>
       </c>
       <c r="B20">
-        <v>0.30558220000000003</v>
+        <v>0.33692912905476802</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +3631,7 @@
         <v>34243</v>
       </c>
       <c r="B21">
-        <v>0.33821479999999998</v>
+        <v>0.33881249762148502</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +3639,7 @@
         <v>34335</v>
       </c>
       <c r="B22">
-        <v>0.22947110000000001</v>
+        <v>0.29765600148353699</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +3647,7 @@
         <v>34425</v>
       </c>
       <c r="B23">
-        <v>0.4430212</v>
+        <v>0.34624010630241397</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +3655,7 @@
         <v>34516</v>
       </c>
       <c r="B24">
-        <v>0.30874639999999998</v>
+        <v>0.3348986010003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +3663,7 @@
         <v>34608</v>
       </c>
       <c r="B25">
-        <v>0.3537033</v>
+        <v>0.35730515156758602</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +3671,7 @@
         <v>34700</v>
       </c>
       <c r="B26">
-        <v>0.23738680000000001</v>
+        <v>0.30234236786621299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +3679,7 @@
         <v>34790</v>
       </c>
       <c r="B27">
-        <v>0.3970825</v>
+        <v>0.30538735716468801</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +3687,7 @@
         <v>34881</v>
       </c>
       <c r="B28">
-        <v>0.33813270000000001</v>
+        <v>0.357321847381113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +3695,7 @@
         <v>34973</v>
       </c>
       <c r="B29">
-        <v>0.34457850000000001</v>
+        <v>0.35681088047343701</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +3703,7 @@
         <v>35065</v>
       </c>
       <c r="B30">
-        <v>0.30440129999999999</v>
+        <v>0.36080714515957801</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +3711,7 @@
         <v>35156</v>
       </c>
       <c r="B31">
-        <v>0.44307770000000002</v>
+        <v>0.35767325459108301</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +3719,7 @@
         <v>35247</v>
       </c>
       <c r="B32">
-        <v>0.30986079999999999</v>
+        <v>0.32304991871554101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +3727,7 @@
         <v>35339</v>
       </c>
       <c r="B33">
-        <v>0.28575479999999998</v>
+        <v>0.30772458446916001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +3735,7 @@
         <v>35431</v>
       </c>
       <c r="B34">
-        <v>0.30278169999999999</v>
+        <v>0.34780898599951099</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +3743,7 @@
         <v>35521</v>
       </c>
       <c r="B35">
-        <v>0.43224279999999998</v>
+        <v>0.35371386755009099</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +3751,7 @@
         <v>35612</v>
       </c>
       <c r="B36">
-        <v>0.32231860000000001</v>
+        <v>0.33237169830476299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +3759,7 @@
         <v>35704</v>
       </c>
       <c r="B37">
-        <v>0.30476609999999998</v>
+        <v>0.33293236328598003</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +3767,7 @@
         <v>35796</v>
       </c>
       <c r="B38">
-        <v>0.35481689999999999</v>
+        <v>0.39044680099866302</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +3775,7 @@
         <v>35886</v>
       </c>
       <c r="B39">
-        <v>0.4672712</v>
+        <v>0.39364735775037102</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +3783,7 @@
         <v>35977</v>
       </c>
       <c r="B40">
-        <v>0.4410694</v>
+        <v>0.45204306233282199</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +3791,7 @@
         <v>36069</v>
       </c>
       <c r="B41">
-        <v>0.3615294</v>
+        <v>0.39138245680529199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +3799,7 @@
         <v>36161</v>
       </c>
       <c r="B42">
-        <v>0.33685480000000001</v>
+        <v>0.36520650843744901</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +3807,7 @@
         <v>36251</v>
       </c>
       <c r="B43">
-        <v>0.40875149999999999</v>
+        <v>0.340138956496219</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +3815,7 @@
         <v>36342</v>
       </c>
       <c r="B44">
-        <v>0.33756019999999998</v>
+        <v>0.34923652329640698</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +3823,7 @@
         <v>36434</v>
       </c>
       <c r="B45">
-        <v>0.3660678</v>
+        <v>0.39759856746029698</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +3831,7 @@
         <v>36526</v>
       </c>
       <c r="B46">
-        <v>0.3554541</v>
+        <v>0.37601690961431</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +3839,7 @@
         <v>36617</v>
       </c>
       <c r="B47">
-        <v>0.44248150000000003</v>
+        <v>0.37791943645339099</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +3847,7 @@
         <v>36708</v>
       </c>
       <c r="B48">
-        <v>0.39732299999999998</v>
+        <v>0.41331305864901702</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +3855,7 @@
         <v>36800</v>
       </c>
       <c r="B49">
-        <v>0.39645419999999998</v>
+        <v>0.42724011728879002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +3863,7 @@
         <v>36892</v>
       </c>
       <c r="B50">
-        <v>0.38406829999999997</v>
+        <v>0.396327447655965</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +3871,7 @@
         <v>36982</v>
       </c>
       <c r="B51">
-        <v>0.53600840000000005</v>
+        <v>0.47575971054904997</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +3879,7 @@
         <v>37073</v>
       </c>
       <c r="B52">
-        <v>0.36928670000000002</v>
+        <v>0.38927306172179998</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +3887,7 @@
         <v>37165</v>
       </c>
       <c r="B53">
-        <v>0.35920950000000001</v>
+        <v>0.39260075821575602</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +3895,7 @@
         <v>37257</v>
       </c>
       <c r="B54">
-        <v>0.36788929999999997</v>
+        <v>0.36871087965419003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +3903,7 @@
         <v>37347</v>
       </c>
       <c r="B55">
-        <v>0.40331329999999999</v>
+        <v>0.34526717819296898</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +3911,7 @@
         <v>37438</v>
       </c>
       <c r="B56">
-        <v>0.35316570000000003</v>
+        <v>0.38153446789533502</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +3919,7 @@
         <v>37530</v>
       </c>
       <c r="B57">
-        <v>0.24450530000000001</v>
+        <v>0.27942371727648901</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +3927,7 @@
         <v>37622</v>
       </c>
       <c r="B58">
-        <v>0.32294200000000001</v>
+        <v>0.31030816498516101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +3935,7 @@
         <v>37712</v>
       </c>
       <c r="B59">
-        <v>0.31626979999999999</v>
+        <v>0.26390532857647903</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +3943,7 @@
         <v>37803</v>
       </c>
       <c r="B60">
-        <v>0.2328887</v>
+        <v>0.264778441559264</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +3951,7 @@
         <v>37895</v>
       </c>
       <c r="B61">
-        <v>0.29627249999999999</v>
+        <v>0.33632114096655102</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +3959,7 @@
         <v>37987</v>
       </c>
       <c r="B62">
-        <v>0.29443629999999998</v>
+        <v>0.26832756713769002</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +3967,7 @@
         <v>38078</v>
       </c>
       <c r="B63">
-        <v>0.33147880000000002</v>
+        <v>0.28365222302924498</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +3975,7 @@
         <v>38169</v>
       </c>
       <c r="B64">
-        <v>0.24369279999999999</v>
+        <v>0.27998935018940802</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +3983,7 @@
         <v>38261</v>
       </c>
       <c r="B65">
-        <v>0.25759399999999999</v>
+        <v>0.299198176171736</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +3991,7 @@
         <v>38353</v>
       </c>
       <c r="B66">
-        <v>0.48465370000000002</v>
+        <v>0.45072636255059401</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +3999,7 @@
         <v>38443</v>
       </c>
       <c r="B67">
-        <v>0.39192369999999999</v>
+        <v>0.34737938630135701</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +4007,7 @@
         <v>38534</v>
       </c>
       <c r="B68">
-        <v>0.28859020000000002</v>
+        <v>0.32513784720983702</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +4015,7 @@
         <v>38626</v>
       </c>
       <c r="B69">
-        <v>0.31429180000000001</v>
+        <v>0.35876312897767398</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +4023,7 @@
         <v>38718</v>
       </c>
       <c r="B70">
-        <v>0.41284559999999998</v>
+        <v>0.37656244669045402</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +4031,7 @@
         <v>38808</v>
       </c>
       <c r="B71">
-        <v>0.38726670000000002</v>
+        <v>0.34098933230874001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +4039,7 @@
         <v>38899</v>
       </c>
       <c r="B72">
-        <v>0.32834550000000001</v>
+        <v>0.36493720672172297</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +4047,7 @@
         <v>38991</v>
       </c>
       <c r="B73">
-        <v>0.30488759999999998</v>
+        <v>0.35176750314649202</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +4055,7 @@
         <v>39083</v>
       </c>
       <c r="B74">
-        <v>0.38169979999999998</v>
+        <v>0.34702940186999298</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +4063,7 @@
         <v>39173</v>
       </c>
       <c r="B75">
-        <v>0.4195527</v>
+        <v>0.37087434470541603</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +4071,7 @@
         <v>39264</v>
       </c>
       <c r="B76">
-        <v>0.35509049999999998</v>
+        <v>0.38701461554363398</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +4079,7 @@
         <v>39356</v>
       </c>
       <c r="B77">
-        <v>0.3323991</v>
+        <v>0.38471110823407101</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +4087,7 @@
         <v>39448</v>
       </c>
       <c r="B78">
-        <v>0.5068762</v>
+        <v>0.47566171610052599</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +4095,7 @@
         <v>39539</v>
       </c>
       <c r="B79">
-        <v>0.38734390000000002</v>
+        <v>0.33358762820536397</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +4103,7 @@
         <v>39630</v>
       </c>
       <c r="B80">
-        <v>0.37606830000000002</v>
+        <v>0.40460000814013503</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +4111,7 @@
         <v>39722</v>
       </c>
       <c r="B81">
-        <v>0.38298880000000002</v>
+        <v>0.43933864345424001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +4119,7 @@
         <v>39814</v>
       </c>
       <c r="B82">
-        <v>0.40258630000000001</v>
+        <v>0.37664639339817502</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +4127,7 @@
         <v>39904</v>
       </c>
       <c r="B83">
-        <v>0.4617117</v>
+        <v>0.40132493910766398</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +4135,7 @@
         <v>39995</v>
       </c>
       <c r="B84">
-        <v>0.31168940000000001</v>
+        <v>0.33799332778497598</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +4143,7 @@
         <v>40087</v>
       </c>
       <c r="B85">
-        <v>0.21963450000000001</v>
+        <v>0.28064779650724098</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +4151,7 @@
         <v>40179</v>
       </c>
       <c r="B86">
-        <v>0.29431380000000001</v>
+        <v>0.27138607745384802</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +4159,7 @@
         <v>40269</v>
       </c>
       <c r="B87">
-        <v>0.34405469999999999</v>
+        <v>0.27739257158799602</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +4167,7 @@
         <v>40360</v>
       </c>
       <c r="B88">
-        <v>0.28613680000000002</v>
+        <v>0.31228725124583301</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +4175,7 @@
         <v>40452</v>
       </c>
       <c r="B89">
-        <v>0.24789530000000001</v>
+        <v>0.312811916325203</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +4183,7 @@
         <v>40544</v>
       </c>
       <c r="B90">
-        <v>0.33595000000000003</v>
+        <v>0.31413906597051</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +4191,7 @@
         <v>40634</v>
       </c>
       <c r="B91">
-        <v>0.3733785</v>
+        <v>0.30216941453977703</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +4199,7 @@
         <v>40725</v>
       </c>
       <c r="B92">
-        <v>0.26161859999999998</v>
+        <v>0.287619981143655</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +4207,7 @@
         <v>40817</v>
       </c>
       <c r="B93">
-        <v>0.22494900000000001</v>
+        <v>0.294151434124372</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +4215,7 @@
         <v>40909</v>
       </c>
       <c r="B94">
-        <v>0.306894</v>
+        <v>0.28508600254885402</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +4223,7 @@
         <v>41000</v>
       </c>
       <c r="B95">
-        <v>0.39935080000000001</v>
+        <v>0.32299719544587702</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +4231,7 @@
         <v>41091</v>
       </c>
       <c r="B96">
-        <v>0.29716239999999999</v>
+        <v>0.32463182413441199</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +4239,7 @@
         <v>41183</v>
       </c>
       <c r="B97">
-        <v>0.25778200000000001</v>
+        <v>0.330462078200498</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +4247,7 @@
         <v>41275</v>
       </c>
       <c r="B98">
-        <v>0.39583400000000002</v>
+        <v>0.375138635615473</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +4255,7 @@
         <v>41365</v>
       </c>
       <c r="B99">
-        <v>0.40489120000000001</v>
+        <v>0.321654384130377</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +4263,7 @@
         <v>41456</v>
       </c>
       <c r="B100">
-        <v>0.30244710000000002</v>
+        <v>0.33200741248670701</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +4271,7 @@
         <v>41548</v>
       </c>
       <c r="B101">
-        <v>0.25994050000000002</v>
+        <v>0.33708145647856103</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +4279,7 @@
         <v>41640</v>
       </c>
       <c r="B102">
-        <v>0.31346370000000001</v>
+        <v>0.29274760015844498</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +4287,7 @@
         <v>41730</v>
       </c>
       <c r="B103">
-        <v>0.34726089999999998</v>
+        <v>0.25708552031244902</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +4295,7 @@
         <v>41821</v>
       </c>
       <c r="B104">
-        <v>0.35236279999999998</v>
+        <v>0.38593591666086202</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +4303,7 @@
         <v>41913</v>
       </c>
       <c r="B105">
-        <v>0.28245599999999998</v>
+        <v>0.36046139529298099</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +4311,7 @@
         <v>42005</v>
       </c>
       <c r="B106">
-        <v>0.4254193</v>
+        <v>0.40680096761974899</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +4319,7 @@
         <v>42095</v>
       </c>
       <c r="B107">
-        <v>0.5144109</v>
+        <v>0.41876580743810699</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +4327,7 @@
         <v>42186</v>
       </c>
       <c r="B108">
-        <v>0.3444856</v>
+        <v>0.38077741515475499</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +4335,7 @@
         <v>42278</v>
       </c>
       <c r="B109">
-        <v>0.28767169999999997</v>
+        <v>0.365538181781494</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +4343,7 @@
         <v>42370</v>
       </c>
       <c r="B110">
-        <v>0.39172970000000001</v>
+        <v>0.37481263245521301</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +4351,7 @@
         <v>42461</v>
       </c>
       <c r="B111">
-        <v>0.50817480000000004</v>
+        <v>0.409442266561094</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +4359,7 @@
         <v>42552</v>
       </c>
       <c r="B112">
-        <v>0.34358549999999999</v>
+        <v>0.38264184024870501</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +4367,7 @@
         <v>42644</v>
       </c>
       <c r="B113">
-        <v>0.25257770000000002</v>
+        <v>0.32760744595755098</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +4375,7 @@
         <v>42736</v>
       </c>
       <c r="B114">
-        <v>0.36523660000000002</v>
+        <v>0.35101959948766998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +4383,7 @@
         <v>42826</v>
       </c>
       <c r="B115">
-        <v>0.44805539999999999</v>
+        <v>0.34742018920047502</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +4391,7 @@
         <v>42917</v>
       </c>
       <c r="B116">
-        <v>0.2917978</v>
+        <v>0.332638403329375</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +4399,7 @@
         <v>43009</v>
       </c>
       <c r="B117">
-        <v>0.3009944</v>
+        <v>0.37449360852166103</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +4407,7 @@
         <v>43101</v>
       </c>
       <c r="B118">
-        <v>0.33268379999999997</v>
+        <v>0.31829896266900598</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +4415,7 @@
         <v>43191</v>
       </c>
       <c r="B119">
-        <v>0.38883479999999998</v>
+        <v>0.28868892175306998</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +4423,7 @@
         <v>43282</v>
       </c>
       <c r="B120">
-        <v>0.27499990000000002</v>
+        <v>0.31799640994946299</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +4431,7 @@
         <v>43374</v>
       </c>
       <c r="B121">
-        <v>0.248697</v>
+        <v>0.319181384100101</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +4439,7 @@
         <v>43466</v>
       </c>
       <c r="B122">
-        <v>0.31176900000000002</v>
+        <v>0.29747156233264399</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +4447,7 @@
         <v>43556</v>
       </c>
       <c r="B123">
-        <v>0.40850419999999998</v>
+        <v>0.30971507672382398</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +4455,7 @@
         <v>43647</v>
       </c>
       <c r="B124">
-        <v>0.28423880000000001</v>
+        <v>0.32863754804731499</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +4463,7 @@
         <v>43739</v>
       </c>
       <c r="B125">
-        <v>0.23103750000000001</v>
+        <v>0.29905440536158601</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +4471,7 @@
         <v>43831</v>
       </c>
       <c r="B126">
-        <v>0.29515409999999997</v>
+        <v>0.28181750372363801</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +4479,7 @@
         <v>43922</v>
       </c>
       <c r="B127">
-        <v>0.37350369999999999</v>
+        <v>0.39925273936012001</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/raw/others/FGS.xlsx
+++ b/data/raw/others/FGS.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,9 +3415,6 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43922</v>
-      </c>
-      <c r="J127">
-        <v>0.39925273936012001</v>
       </c>
       <c r="K127">
         <v>0.39925273936012001</v>

--- a/data/raw/others/FGS.xlsx
+++ b/data/raw/others/FGS.xlsx
@@ -25,34 +25,34 @@
     <t>FGS</t>
   </si>
   <si>
-    <t>FGS_20010214</t>
+    <t>FGS_20010401</t>
   </si>
   <si>
-    <t>FGS_20010512</t>
+    <t>FGS_20010101</t>
   </si>
   <si>
-    <t>FGS_20010815</t>
+    <t>FGS_20010701</t>
   </si>
   <si>
-    <t>FGS_20011114</t>
+    <t>FGS_20011001</t>
   </si>
   <si>
-    <t>FGS_20080807</t>
+    <t>FGS_20080701</t>
   </si>
   <si>
-    <t>FGS_20081110</t>
+    <t>FGS_20081001</t>
   </si>
   <si>
-    <t>FGS_20090210</t>
+    <t>FGS_20090101</t>
   </si>
   <si>
-    <t>FGS_20090512</t>
+    <t>FGS_20090401</t>
   </si>
   <si>
-    <t>FGS_20200211</t>
+    <t>FGS_20200101</t>
   </si>
   <si>
-    <t>FGS_20200512</t>
+    <t>FGS_20200401</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +435,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -470,34 +470,34 @@
         <v>32509</v>
       </c>
       <c r="B2">
-        <v>0.49577029925972699</v>
+        <v>0.35772557269275201</v>
       </c>
       <c r="C2">
-        <v>0.49577261272589801</v>
+        <v>0.35772365692869001</v>
       </c>
       <c r="D2">
-        <v>0.49577398524070498</v>
+        <v>0.35772229997606297</v>
       </c>
       <c r="E2">
-        <v>0.49577160310624402</v>
+        <v>0.35772506512566399</v>
       </c>
       <c r="F2">
-        <v>0.49717668424932898</v>
+        <v>0.35798733926960202</v>
       </c>
       <c r="G2">
-        <v>0.49717669064959502</v>
+        <v>0.35798733009533401</v>
       </c>
       <c r="H2">
-        <v>0.49717668434960599</v>
+        <v>0.35798733915512398</v>
       </c>
       <c r="I2">
-        <v>0.497176684326539</v>
+        <v>0.357987339192401</v>
       </c>
       <c r="J2">
-        <v>0.49577036924298201</v>
+        <v>0.35772519346693599</v>
       </c>
       <c r="K2">
-        <v>0.49577036924298201</v>
+        <v>0.35772519346693599</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -505,34 +505,34 @@
         <v>32599</v>
       </c>
       <c r="B3">
-        <v>0.35772557269275201</v>
+        <v>0.40756327074721399</v>
       </c>
       <c r="C3">
-        <v>0.35772365692869001</v>
+        <v>0.40756258618709501</v>
       </c>
       <c r="D3">
-        <v>0.35772229997606297</v>
+        <v>0.40756009012488398</v>
       </c>
       <c r="E3">
-        <v>0.35772506512566399</v>
+        <v>0.40756413795262603</v>
       </c>
       <c r="F3">
-        <v>0.35798733926960202</v>
+        <v>0.40867822285706001</v>
       </c>
       <c r="G3">
-        <v>0.35798733009533401</v>
+        <v>0.40867816458595102</v>
       </c>
       <c r="H3">
-        <v>0.35798733915512398</v>
+        <v>0.40867822176970198</v>
       </c>
       <c r="I3">
-        <v>0.357987339192401</v>
+        <v>0.40867822195467202</v>
       </c>
       <c r="J3">
-        <v>0.35772519346693599</v>
+        <v>0.40757122143417202</v>
       </c>
       <c r="K3">
-        <v>0.35772519346693599</v>
+        <v>0.40757122143417202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -540,34 +540,34 @@
         <v>32690</v>
       </c>
       <c r="B4">
-        <v>0.40756327074721399</v>
+        <v>0.404845617697079</v>
       </c>
       <c r="C4">
-        <v>0.40756258618709501</v>
+        <v>0.40484598853156001</v>
       </c>
       <c r="D4">
-        <v>0.40756009012488398</v>
+        <v>0.40484875367919498</v>
       </c>
       <c r="E4">
-        <v>0.40756413795262603</v>
+        <v>0.40484379794904901</v>
       </c>
       <c r="F4">
-        <v>0.40867822285706001</v>
+        <v>0.40228942333508699</v>
       </c>
       <c r="G4">
-        <v>0.40867816458595102</v>
+        <v>0.40228948908652801</v>
       </c>
       <c r="H4">
-        <v>0.40867822176970198</v>
+        <v>0.40228942452010402</v>
       </c>
       <c r="I4">
-        <v>0.40867822195467202</v>
+        <v>0.40228942430535602</v>
       </c>
       <c r="J4">
-        <v>0.40757122143417202</v>
+        <v>0.40483726231766398</v>
       </c>
       <c r="K4">
-        <v>0.40757122143417202</v>
+        <v>0.40483726231766398</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -575,34 +575,34 @@
         <v>32782</v>
       </c>
       <c r="B5">
-        <v>0.404845617697079</v>
+        <v>0.34264332233744199</v>
       </c>
       <c r="C5">
-        <v>0.40484598853156001</v>
+        <v>0.34264539337453798</v>
       </c>
       <c r="D5">
-        <v>0.40484875367919498</v>
+        <v>0.34264632641720999</v>
       </c>
       <c r="E5">
-        <v>0.40484379794904901</v>
+        <v>0.34264475381050602</v>
       </c>
       <c r="F5">
-        <v>0.40228942333508699</v>
+        <v>0.34353330320561098</v>
       </c>
       <c r="G5">
-        <v>0.40228948908652801</v>
+        <v>0.34353330519749897</v>
       </c>
       <c r="H5">
-        <v>0.40228942452010402</v>
+        <v>0.34353330323008602</v>
       </c>
       <c r="I5">
-        <v>0.40228942430535602</v>
+        <v>0.34353330322194298</v>
       </c>
       <c r="J5">
-        <v>0.40483726231766398</v>
+        <v>0.342644268741358</v>
       </c>
       <c r="K5">
-        <v>0.40483726231766398</v>
+        <v>0.342644268741358</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -610,34 +610,34 @@
         <v>32874</v>
       </c>
       <c r="B6">
-        <v>0.34264332233744199</v>
+        <v>0.38098764507747201</v>
       </c>
       <c r="C6">
-        <v>0.34264539337453798</v>
+        <v>0.38098621897711199</v>
       </c>
       <c r="D6">
-        <v>0.34264632641720999</v>
+        <v>0.38098523005663198</v>
       </c>
       <c r="E6">
-        <v>0.34264475381050602</v>
+        <v>0.38098734470448498</v>
       </c>
       <c r="F6">
-        <v>0.34353330320561098</v>
+        <v>0.381687272432367</v>
       </c>
       <c r="G6">
-        <v>0.34353330519749897</v>
+        <v>0.38168726360134397</v>
       </c>
       <c r="H6">
-        <v>0.34353330323008602</v>
+        <v>0.38168727231969601</v>
       </c>
       <c r="I6">
-        <v>0.34353330322194298</v>
+        <v>0.38168727235522298</v>
       </c>
       <c r="J6">
-        <v>0.342644268741358</v>
+        <v>0.38098700746804198</v>
       </c>
       <c r="K6">
-        <v>0.342644268741358</v>
+        <v>0.38098700746804198</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,34 +645,34 @@
         <v>32964</v>
       </c>
       <c r="B7">
-        <v>0.38098764507747201</v>
+        <v>0.40528662096700002</v>
       </c>
       <c r="C7">
-        <v>0.38098621897711199</v>
+        <v>0.40528543838711401</v>
       </c>
       <c r="D7">
-        <v>0.38098523005663198</v>
+        <v>0.40528237568380099</v>
       </c>
       <c r="E7">
-        <v>0.38098734470448498</v>
+        <v>0.40528740095621502</v>
       </c>
       <c r="F7">
-        <v>0.381687272432367</v>
+        <v>0.406267806110439</v>
       </c>
       <c r="G7">
-        <v>0.38168726360134397</v>
+        <v>0.40626773847619102</v>
       </c>
       <c r="H7">
-        <v>0.38168727231969601</v>
+        <v>0.40626780485446701</v>
       </c>
       <c r="I7">
-        <v>0.38168727235522298</v>
+        <v>0.40626780507003502</v>
       </c>
       <c r="J7">
-        <v>0.38098700746804198</v>
+        <v>0.40529557734716298</v>
       </c>
       <c r="K7">
-        <v>0.38098700746804198</v>
+        <v>0.40529557734716298</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -680,34 +680,34 @@
         <v>33055</v>
       </c>
       <c r="B8">
-        <v>0.40528662096700002</v>
+        <v>0.3614358143768</v>
       </c>
       <c r="C8">
-        <v>0.40528543838711401</v>
+        <v>0.36143646801601997</v>
       </c>
       <c r="D8">
-        <v>0.40528237568380099</v>
+        <v>0.361439923332107</v>
       </c>
       <c r="E8">
-        <v>0.40528740095621502</v>
+        <v>0.36143373893477199</v>
       </c>
       <c r="F8">
-        <v>0.406267806110439</v>
+        <v>0.35882762089308101</v>
       </c>
       <c r="G8">
-        <v>0.40626773847619102</v>
+        <v>0.35882770251577101</v>
       </c>
       <c r="H8">
-        <v>0.40626780485446701</v>
+        <v>0.35882762236525401</v>
       </c>
       <c r="I8">
-        <v>0.40626780507003502</v>
+        <v>0.35882762209882901</v>
       </c>
       <c r="J8">
-        <v>0.40529557734716298</v>
+        <v>0.36142572990551097</v>
       </c>
       <c r="K8">
-        <v>0.40529557734716298</v>
+        <v>0.36142572990551097</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -715,34 +715,34 @@
         <v>33147</v>
       </c>
       <c r="B9">
-        <v>0.3614358143768</v>
+        <v>0.40814536232112902</v>
       </c>
       <c r="C9">
-        <v>0.36143646801601997</v>
+        <v>0.40814685980346299</v>
       </c>
       <c r="D9">
-        <v>0.361439923332107</v>
+        <v>0.40814722744093002</v>
       </c>
       <c r="E9">
-        <v>0.36143373893477199</v>
+        <v>0.40814671512163903</v>
       </c>
       <c r="F9">
-        <v>0.35882762089308101</v>
+        <v>0.40910496192441997</v>
       </c>
       <c r="G9">
-        <v>0.35882770251577101</v>
+        <v>0.40910495790109802</v>
       </c>
       <c r="H9">
-        <v>0.35882762236525401</v>
+        <v>0.40910496184953199</v>
       </c>
       <c r="I9">
-        <v>0.35882762209882901</v>
+        <v>0.40910496186233603</v>
       </c>
       <c r="J9">
-        <v>0.36142572990551097</v>
+        <v>0.40814684249723898</v>
       </c>
       <c r="K9">
-        <v>0.36142572990551097</v>
+        <v>0.40814684249723898</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,34 +750,34 @@
         <v>33239</v>
       </c>
       <c r="B10">
-        <v>0.40814536232112902</v>
+        <v>0.41340084421303203</v>
       </c>
       <c r="C10">
-        <v>0.40814685980346299</v>
+        <v>0.41340052205460598</v>
       </c>
       <c r="D10">
-        <v>0.40814722744093002</v>
+        <v>0.41340008912141701</v>
       </c>
       <c r="E10">
-        <v>0.40814671512163903</v>
+        <v>0.41340117993850001</v>
       </c>
       <c r="F10">
-        <v>0.40910496192441997</v>
+        <v>0.41397184613677801</v>
       </c>
       <c r="G10">
-        <v>0.40910495790109802</v>
+        <v>0.41397183714729802</v>
       </c>
       <c r="H10">
-        <v>0.40910496184953199</v>
+        <v>0.41397184604918702</v>
       </c>
       <c r="I10">
-        <v>0.40910496186233603</v>
+        <v>0.41397184608785398</v>
       </c>
       <c r="J10">
-        <v>0.40814684249723898</v>
+        <v>0.41340068801614999</v>
       </c>
       <c r="K10">
-        <v>0.40814684249723898</v>
+        <v>0.41340068801614999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,34 +785,34 @@
         <v>33329</v>
       </c>
       <c r="B11">
-        <v>0.41340084421303203</v>
+        <v>0.352645182249745</v>
       </c>
       <c r="C11">
-        <v>0.41340052205460598</v>
+        <v>0.35264301882705001</v>
       </c>
       <c r="D11">
-        <v>0.41340008912141701</v>
+        <v>0.352639159110955</v>
       </c>
       <c r="E11">
-        <v>0.41340117993850001</v>
+        <v>0.35264551056986698</v>
       </c>
       <c r="F11">
-        <v>0.41397184613677801</v>
+        <v>0.35335221781617399</v>
       </c>
       <c r="G11">
-        <v>0.41397183714729802</v>
+        <v>0.35335213870649601</v>
       </c>
       <c r="H11">
-        <v>0.41397184604918702</v>
+        <v>0.35335221657926702</v>
       </c>
       <c r="I11">
-        <v>0.41397184608785398</v>
+        <v>0.35335221685780799</v>
       </c>
       <c r="J11">
-        <v>0.41340068801614999</v>
+        <v>0.35265489363421898</v>
       </c>
       <c r="K11">
-        <v>0.41340068801614999</v>
+        <v>0.35265489363421898</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -820,34 +820,34 @@
         <v>33420</v>
       </c>
       <c r="B12">
-        <v>0.352645182249745</v>
+        <v>0.35143951819369601</v>
       </c>
       <c r="C12">
-        <v>0.35264301882705001</v>
+        <v>0.35144038338266598</v>
       </c>
       <c r="D12">
-        <v>0.352639159110955</v>
+        <v>0.35144457761617098</v>
       </c>
       <c r="E12">
-        <v>0.35264551056986698</v>
+        <v>0.35143688542908502</v>
       </c>
       <c r="F12">
-        <v>0.35335221781617399</v>
+        <v>0.349520179113117</v>
       </c>
       <c r="G12">
-        <v>0.35335213870649601</v>
+        <v>0.34952028182887901</v>
       </c>
       <c r="H12">
-        <v>0.35335221657926702</v>
+        <v>0.349520180223026</v>
       </c>
       <c r="I12">
-        <v>0.35335221685780799</v>
+        <v>0.34952017980470801</v>
       </c>
       <c r="J12">
-        <v>0.35265489363421898</v>
+        <v>0.35142745297289801</v>
       </c>
       <c r="K12">
-        <v>0.35265489363421898</v>
+        <v>0.35142745297289801</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,34 +855,34 @@
         <v>33512</v>
       </c>
       <c r="B13">
-        <v>0.35143951819369601</v>
+        <v>0.39356114851323298</v>
       </c>
       <c r="C13">
-        <v>0.35144038338266598</v>
+        <v>0.39356245541431201</v>
       </c>
       <c r="D13">
-        <v>0.35144457761617098</v>
+        <v>0.393562678051319</v>
       </c>
       <c r="E13">
-        <v>0.35143688542908502</v>
+        <v>0.39356323000159799</v>
       </c>
       <c r="F13">
-        <v>0.349520179113117</v>
+        <v>0.39421645046392101</v>
       </c>
       <c r="G13">
-        <v>0.34952028182887901</v>
+        <v>0.39421645983283798</v>
       </c>
       <c r="H13">
-        <v>0.349520180223026</v>
+        <v>0.39421644673551498</v>
       </c>
       <c r="I13">
-        <v>0.34952017980470801</v>
+        <v>0.39421644626890201</v>
       </c>
       <c r="J13">
-        <v>0.35142745297289801</v>
+        <v>0.393563584853383</v>
       </c>
       <c r="K13">
-        <v>0.35142745297289801</v>
+        <v>0.393563584853383</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,34 +890,34 @@
         <v>33604</v>
       </c>
       <c r="B14">
-        <v>0.39356114851323298</v>
+        <v>0.37245996540304599</v>
       </c>
       <c r="C14">
-        <v>0.39356245541431201</v>
+        <v>0.37246108956041202</v>
       </c>
       <c r="D14">
-        <v>0.393562678051319</v>
+        <v>0.37246154661347702</v>
       </c>
       <c r="E14">
-        <v>0.39356323000159799</v>
+        <v>0.372461967343658</v>
       </c>
       <c r="F14">
-        <v>0.39421645046392101</v>
+        <v>0.37314651510490798</v>
       </c>
       <c r="G14">
-        <v>0.39421645983283798</v>
+        <v>0.37314647682272301</v>
       </c>
       <c r="H14">
-        <v>0.39421644673551498</v>
+        <v>0.37314651915605901</v>
       </c>
       <c r="I14">
-        <v>0.39421644626890201</v>
+        <v>0.37314651981213798</v>
       </c>
       <c r="J14">
-        <v>0.393563584853383</v>
+        <v>0.372461810894885</v>
       </c>
       <c r="K14">
-        <v>0.393563584853383</v>
+        <v>0.372461810894885</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,34 +925,34 @@
         <v>33695</v>
       </c>
       <c r="B15">
-        <v>0.37245996540304599</v>
+        <v>0.33446437266130702</v>
       </c>
       <c r="C15">
-        <v>0.37246108956041202</v>
+        <v>0.33446135567100999</v>
       </c>
       <c r="D15">
-        <v>0.37246154661347702</v>
+        <v>0.334454962885324</v>
       </c>
       <c r="E15">
-        <v>0.372461967343658</v>
+        <v>0.334462310253482</v>
       </c>
       <c r="F15">
-        <v>0.37314651510490798</v>
+        <v>0.334718649259241</v>
       </c>
       <c r="G15">
-        <v>0.37314647682272301</v>
+        <v>0.33471846999661897</v>
       </c>
       <c r="H15">
-        <v>0.37314651915605901</v>
+        <v>0.33471866520167898</v>
       </c>
       <c r="I15">
-        <v>0.37314651981213798</v>
+        <v>0.33471866793197602</v>
       </c>
       <c r="J15">
-        <v>0.372461810894885</v>
+        <v>0.33447113763290698</v>
       </c>
       <c r="K15">
-        <v>0.372461810894885</v>
+        <v>0.33447113763290698</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -960,34 +960,34 @@
         <v>33786</v>
       </c>
       <c r="B16">
-        <v>0.33446437266130702</v>
+        <v>0.413560988870879</v>
       </c>
       <c r="C16">
-        <v>0.33446135567100999</v>
+        <v>0.413560607544317</v>
       </c>
       <c r="D16">
-        <v>0.334454962885324</v>
+        <v>0.41356225427059101</v>
       </c>
       <c r="E16">
-        <v>0.334462310253482</v>
+        <v>0.41355820654180597</v>
       </c>
       <c r="F16">
-        <v>0.334718649259241</v>
+        <v>0.41221173658344701</v>
       </c>
       <c r="G16">
-        <v>0.33471846999661897</v>
+        <v>0.41221195384106601</v>
       </c>
       <c r="H16">
-        <v>0.33471866520167898</v>
+        <v>0.41221171848354898</v>
       </c>
       <c r="I16">
-        <v>0.33471866793197602</v>
+        <v>0.41221171531054002</v>
       </c>
       <c r="J16">
-        <v>0.33447113763290698</v>
+        <v>0.41354427757716999</v>
       </c>
       <c r="K16">
-        <v>0.33447113763290698</v>
+        <v>0.41354427757716999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -995,34 +995,34 @@
         <v>33878</v>
       </c>
       <c r="B17">
-        <v>0.413560988870879</v>
+        <v>0.338950191896774</v>
       </c>
       <c r="C17">
-        <v>0.413560607544317</v>
+        <v>0.33894982020502201</v>
       </c>
       <c r="D17">
-        <v>0.41356225427059101</v>
+        <v>0.33895945146741402</v>
       </c>
       <c r="E17">
-        <v>0.41355820654180597</v>
+        <v>0.33894994664810701</v>
       </c>
       <c r="F17">
-        <v>0.41221173658344701</v>
+        <v>0.33931169752432699</v>
       </c>
       <c r="G17">
-        <v>0.41221195384106601</v>
+        <v>0.339311895985076</v>
       </c>
       <c r="H17">
-        <v>0.41221171848354898</v>
+        <v>0.339311664106627</v>
       </c>
       <c r="I17">
-        <v>0.41221171531054002</v>
+        <v>0.33931165931892798</v>
       </c>
       <c r="J17">
-        <v>0.41354427757716999</v>
+        <v>0.33896288856530798</v>
       </c>
       <c r="K17">
-        <v>0.41354427757716999</v>
+        <v>0.33896288856530798</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1030,34 +1030,34 @@
         <v>33970</v>
       </c>
       <c r="B18">
-        <v>0.338950191896774</v>
+        <v>0.31868267351867902</v>
       </c>
       <c r="C18">
-        <v>0.33894982020502201</v>
+        <v>0.318689109730738</v>
       </c>
       <c r="D18">
-        <v>0.33895945146741402</v>
+        <v>0.31869208035569402</v>
       </c>
       <c r="E18">
-        <v>0.33894994664810701</v>
+        <v>0.31869090518771098</v>
       </c>
       <c r="F18">
-        <v>0.33931169752432699</v>
+        <v>0.31948588400417499</v>
       </c>
       <c r="G18">
-        <v>0.339311895985076</v>
+        <v>0.31948571536772402</v>
       </c>
       <c r="H18">
-        <v>0.339311664106627</v>
+        <v>0.31948590905777302</v>
       </c>
       <c r="I18">
-        <v>0.33931165931892798</v>
+        <v>0.31948591275233901</v>
       </c>
       <c r="J18">
-        <v>0.33896288856530798</v>
+        <v>0.31869057968401199</v>
       </c>
       <c r="K18">
-        <v>0.33896288856530798</v>
+        <v>0.31869057968401199</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1065,34 +1065,34 @@
         <v>34060</v>
       </c>
       <c r="B19">
-        <v>0.31868267351867902</v>
+        <v>0.33693939807715201</v>
       </c>
       <c r="C19">
-        <v>0.318689109730738</v>
+        <v>0.33693747406876901</v>
       </c>
       <c r="D19">
-        <v>0.31869208035569402</v>
+        <v>0.33691384703221999</v>
       </c>
       <c r="E19">
-        <v>0.31869090518771098</v>
+        <v>0.336937359851044</v>
       </c>
       <c r="F19">
-        <v>0.31948588400417499</v>
+        <v>0.337037444584944</v>
       </c>
       <c r="G19">
-        <v>0.31948571536772402</v>
+        <v>0.33703680291565402</v>
       </c>
       <c r="H19">
-        <v>0.31948590905777302</v>
+        <v>0.33703753347918902</v>
       </c>
       <c r="I19">
-        <v>0.31948591275233901</v>
+        <v>0.33703754681591402</v>
       </c>
       <c r="J19">
-        <v>0.31869057968401199</v>
+        <v>0.33692912905476802</v>
       </c>
       <c r="K19">
-        <v>0.31869057968401199</v>
+        <v>0.33692912905476802</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,34 +1100,34 @@
         <v>34151</v>
       </c>
       <c r="B20">
-        <v>0.33693939807715201</v>
+        <v>0.33884700533269702</v>
       </c>
       <c r="C20">
-        <v>0.33693747406876901</v>
+        <v>0.33884125987603803</v>
       </c>
       <c r="D20">
-        <v>0.33691384703221999</v>
+        <v>0.33883619665207698</v>
       </c>
       <c r="E20">
-        <v>0.336937359851044</v>
+        <v>0.338842953960802</v>
       </c>
       <c r="F20">
-        <v>0.337037444584944</v>
+        <v>0.33780472764255798</v>
       </c>
       <c r="G20">
-        <v>0.33703680291565402</v>
+        <v>0.33780524079954999</v>
       </c>
       <c r="H20">
-        <v>0.33703753347918902</v>
+        <v>0.33780466302435003</v>
       </c>
       <c r="I20">
-        <v>0.33703754681591402</v>
+        <v>0.33780465307021101</v>
       </c>
       <c r="J20">
-        <v>0.33692912905476802</v>
+        <v>0.33881249762148502</v>
       </c>
       <c r="K20">
-        <v>0.33692912905476802</v>
+        <v>0.33881249762148502</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,34 +1135,34 @@
         <v>34243</v>
       </c>
       <c r="B21">
-        <v>0.33884700533269702</v>
+        <v>0.29760203740264901</v>
       </c>
       <c r="C21">
-        <v>0.33884125987603803</v>
+        <v>0.29759214056439398</v>
       </c>
       <c r="D21">
-        <v>0.33883619665207698</v>
+        <v>0.29763643506168103</v>
       </c>
       <c r="E21">
-        <v>0.338842953960802</v>
+        <v>0.29758331469797</v>
       </c>
       <c r="F21">
-        <v>0.33780472764255798</v>
+        <v>0.29756093866035199</v>
       </c>
       <c r="G21">
-        <v>0.33780524079954999</v>
+        <v>0.29756174903513799</v>
       </c>
       <c r="H21">
-        <v>0.33780466302435003</v>
+        <v>0.29756080921735001</v>
       </c>
       <c r="I21">
-        <v>0.33780465307021101</v>
+        <v>0.29756079036160499</v>
       </c>
       <c r="J21">
-        <v>0.33881249762148502</v>
+        <v>0.29765600148353699</v>
       </c>
       <c r="K21">
-        <v>0.33881249762148502</v>
+        <v>0.29765600148353699</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1170,34 +1170,34 @@
         <v>34335</v>
       </c>
       <c r="B22">
-        <v>0.29760203740264901</v>
+        <v>0.34621835002773699</v>
       </c>
       <c r="C22">
-        <v>0.29759214056439398</v>
+        <v>0.34624157669070799</v>
       </c>
       <c r="D22">
-        <v>0.29763643506168103</v>
+        <v>0.34624722566307597</v>
       </c>
       <c r="E22">
-        <v>0.29758331469797</v>
+        <v>0.34624925860456801</v>
       </c>
       <c r="F22">
-        <v>0.29756093866035199</v>
+        <v>0.34738710094689801</v>
       </c>
       <c r="G22">
-        <v>0.29756174903513799</v>
+        <v>0.34738686964444798</v>
       </c>
       <c r="H22">
-        <v>0.29756080921735001</v>
+        <v>0.34738713429319501</v>
       </c>
       <c r="I22">
-        <v>0.29756079036160499</v>
+        <v>0.34738713932385501</v>
       </c>
       <c r="J22">
-        <v>0.29765600148353699</v>
+        <v>0.34624010630241397</v>
       </c>
       <c r="K22">
-        <v>0.29765600148353699</v>
+        <v>0.34624010630241397</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1205,34 +1205,34 @@
         <v>34425</v>
       </c>
       <c r="B23">
-        <v>0.34621835002773699</v>
+        <v>0.33495206730488097</v>
       </c>
       <c r="C23">
-        <v>0.34624157669070799</v>
+        <v>0.33496451979019098</v>
       </c>
       <c r="D23">
-        <v>0.34624722566307597</v>
+        <v>0.33490290972186898</v>
       </c>
       <c r="E23">
-        <v>0.34624925860456801</v>
+        <v>0.33497188373111902</v>
       </c>
       <c r="F23">
-        <v>0.34738710094689801</v>
+        <v>0.334676448494518</v>
       </c>
       <c r="G23">
-        <v>0.34738686964444798</v>
+        <v>0.33467486555315601</v>
       </c>
       <c r="H23">
-        <v>0.34738713429319501</v>
+        <v>0.33467666563399201</v>
       </c>
       <c r="I23">
-        <v>0.34738713932385501</v>
+        <v>0.334676699874285</v>
       </c>
       <c r="J23">
-        <v>0.34624010630241397</v>
+        <v>0.3348986010003</v>
       </c>
       <c r="K23">
-        <v>0.34624010630241397</v>
+        <v>0.3348986010003</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1240,34 +1240,34 @@
         <v>34516</v>
       </c>
       <c r="B24">
-        <v>0.33495206730488097</v>
+        <v>0.35738073345752203</v>
       </c>
       <c r="C24">
-        <v>0.33496451979019098</v>
+        <v>0.35733764965161402</v>
       </c>
       <c r="D24">
-        <v>0.33490290972186898</v>
+        <v>0.35729968725212702</v>
       </c>
       <c r="E24">
-        <v>0.33497188373111902</v>
+        <v>0.35731717346851</v>
       </c>
       <c r="F24">
-        <v>0.334676448494518</v>
+        <v>0.35653147951636799</v>
       </c>
       <c r="G24">
-        <v>0.33467486555315601</v>
+        <v>0.35653058200405102</v>
       </c>
       <c r="H24">
-        <v>0.33467666563399201</v>
+        <v>0.35653161511257597</v>
       </c>
       <c r="I24">
-        <v>0.334676699874285</v>
+        <v>0.35653163609849098</v>
       </c>
       <c r="J24">
-        <v>0.3348986010003</v>
+        <v>0.35730515156758602</v>
       </c>
       <c r="K24">
-        <v>0.3348986010003</v>
+        <v>0.35730515156758602</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1275,34 +1275,34 @@
         <v>34608</v>
       </c>
       <c r="B25">
-        <v>0.35738073345752203</v>
+        <v>0.30226561237780603</v>
       </c>
       <c r="C25">
-        <v>0.35733764965161402</v>
+        <v>0.30225840709069801</v>
       </c>
       <c r="D25">
-        <v>0.35729968725212702</v>
+        <v>0.30237235836564902</v>
       </c>
       <c r="E25">
-        <v>0.35731717346851</v>
+        <v>0.30229431829723402</v>
       </c>
       <c r="F25">
-        <v>0.35653147951636799</v>
+        <v>0.30261199890318802</v>
       </c>
       <c r="G25">
-        <v>0.35653058200405102</v>
+        <v>0.30261495849011999</v>
       </c>
       <c r="H25">
-        <v>0.35653161511257597</v>
+        <v>0.30261166223757002</v>
       </c>
       <c r="I25">
-        <v>0.35653163609849098</v>
+        <v>0.30261160049420199</v>
       </c>
       <c r="J25">
-        <v>0.35730515156758602</v>
+        <v>0.30234236786621299</v>
       </c>
       <c r="K25">
-        <v>0.35730515156758602</v>
+        <v>0.30234236786621299</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1310,34 +1310,34 @@
         <v>34700</v>
       </c>
       <c r="B26">
-        <v>0.30226561237780603</v>
+        <v>0.305150011114319</v>
       </c>
       <c r="C26">
-        <v>0.30225840709069801</v>
+        <v>0.30517643734710198</v>
       </c>
       <c r="D26">
-        <v>0.30237235836564902</v>
+        <v>0.30528442025475599</v>
       </c>
       <c r="E26">
-        <v>0.30229431829723402</v>
+        <v>0.305085862174994</v>
       </c>
       <c r="F26">
-        <v>0.30261199890318802</v>
+        <v>0.30586903171949897</v>
       </c>
       <c r="G26">
-        <v>0.30261495849011999</v>
+        <v>0.30587510692874897</v>
       </c>
       <c r="H26">
-        <v>0.30261166223757002</v>
+        <v>0.30586816108924803</v>
       </c>
       <c r="I26">
-        <v>0.30261160049420199</v>
+        <v>0.30586802594324097</v>
       </c>
       <c r="J26">
-        <v>0.30234236786621299</v>
+        <v>0.30538735716468801</v>
       </c>
       <c r="K26">
-        <v>0.30234236786621299</v>
+        <v>0.30538735716468801</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1345,34 +1345,34 @@
         <v>34790</v>
       </c>
       <c r="B27">
-        <v>0.305150011114319</v>
+        <v>0.35770172363749098</v>
       </c>
       <c r="C27">
-        <v>0.30517643734710198</v>
+        <v>0.35780419269629199</v>
       </c>
       <c r="D27">
-        <v>0.30528442025475599</v>
+        <v>0.35750179512048202</v>
       </c>
       <c r="E27">
-        <v>0.305085862174994</v>
+        <v>0.35793116618866899</v>
       </c>
       <c r="F27">
-        <v>0.30586903171949897</v>
+        <v>0.35704465428660298</v>
       </c>
       <c r="G27">
-        <v>0.30587510692874897</v>
+        <v>0.35703020691631698</v>
       </c>
       <c r="H27">
-        <v>0.30586816108924803</v>
+        <v>0.35704654884168902</v>
       </c>
       <c r="I27">
-        <v>0.30586802594324097</v>
+        <v>0.35704686144311398</v>
       </c>
       <c r="J27">
-        <v>0.30538735716468801</v>
+        <v>0.357321847381113</v>
       </c>
       <c r="K27">
-        <v>0.30538735716468801</v>
+        <v>0.357321847381113</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1380,34 +1380,34 @@
         <v>34881</v>
       </c>
       <c r="B28">
-        <v>0.35770172363749098</v>
+        <v>0.35673571099753698</v>
       </c>
       <c r="C28">
-        <v>0.35780419269629199</v>
+        <v>0.35656461704510201</v>
       </c>
       <c r="D28">
-        <v>0.35750179512048202</v>
+        <v>0.35659458511650899</v>
       </c>
       <c r="E28">
-        <v>0.35793116618866899</v>
+        <v>0.35649148353375598</v>
       </c>
       <c r="F28">
-        <v>0.35704465428660298</v>
+        <v>0.356464789445046</v>
       </c>
       <c r="G28">
-        <v>0.35703020691631698</v>
+        <v>0.356468801420953</v>
       </c>
       <c r="H28">
-        <v>0.35704654884168902</v>
+        <v>0.35646392204386201</v>
       </c>
       <c r="I28">
-        <v>0.35704686144311398</v>
+        <v>0.35646381877743399</v>
       </c>
       <c r="J28">
-        <v>0.357321847381113</v>
+        <v>0.35681088047343701</v>
       </c>
       <c r="K28">
-        <v>0.357321847381113</v>
+        <v>0.35681088047343701</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1415,34 +1415,34 @@
         <v>34973</v>
       </c>
       <c r="B29">
-        <v>0.35673571099753698</v>
+        <v>0.36077779874216598</v>
       </c>
       <c r="C29">
-        <v>0.35656461704510201</v>
+        <v>0.36076397775525798</v>
       </c>
       <c r="D29">
-        <v>0.35659458511650899</v>
+        <v>0.36097063105615501</v>
       </c>
       <c r="E29">
-        <v>0.35649148353375598</v>
+        <v>0.36084173874123499</v>
       </c>
       <c r="F29">
-        <v>0.356464789445046</v>
+        <v>0.36130540141537898</v>
       </c>
       <c r="G29">
-        <v>0.356468801420953</v>
+        <v>0.36131123648271002</v>
       </c>
       <c r="H29">
-        <v>0.35646392204386201</v>
+        <v>0.36130520665316301</v>
       </c>
       <c r="I29">
-        <v>0.35646381877743399</v>
+        <v>0.36130510797844101</v>
       </c>
       <c r="J29">
-        <v>0.35681088047343701</v>
+        <v>0.36080714515957801</v>
       </c>
       <c r="K29">
-        <v>0.35681088047343701</v>
+        <v>0.36080714515957801</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1450,34 +1450,34 @@
         <v>35065</v>
       </c>
       <c r="B30">
-        <v>0.36077779874216598</v>
+        <v>0.35730173039441998</v>
       </c>
       <c r="C30">
-        <v>0.36076397775525798</v>
+        <v>0.35740276430505302</v>
       </c>
       <c r="D30">
-        <v>0.36097063105615501</v>
+        <v>0.35762004803512898</v>
       </c>
       <c r="E30">
-        <v>0.36084173874123499</v>
+        <v>0.35717122243930299</v>
       </c>
       <c r="F30">
-        <v>0.36130540141537898</v>
+        <v>0.35730681583795698</v>
       </c>
       <c r="G30">
-        <v>0.36131123648271002</v>
+        <v>0.35731727045587303</v>
       </c>
       <c r="H30">
-        <v>0.36130520665316301</v>
+        <v>0.35730582329869398</v>
       </c>
       <c r="I30">
-        <v>0.36130510797844101</v>
+        <v>0.35730561556279</v>
       </c>
       <c r="J30">
-        <v>0.36080714515957801</v>
+        <v>0.35767325459108301</v>
       </c>
       <c r="K30">
-        <v>0.36080714515957801</v>
+        <v>0.35767325459108301</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1485,34 +1485,34 @@
         <v>35156</v>
       </c>
       <c r="B31">
-        <v>0.35730173039441998</v>
+        <v>0.32363554368844899</v>
       </c>
       <c r="C31">
-        <v>0.35740276430505302</v>
+        <v>0.32387030608892098</v>
       </c>
       <c r="D31">
-        <v>0.35762004803512898</v>
+        <v>0.32328238718418101</v>
       </c>
       <c r="E31">
-        <v>0.35717122243930299</v>
+        <v>0.32409600823637602</v>
       </c>
       <c r="F31">
-        <v>0.35730681583795698</v>
+        <v>0.32339250158910199</v>
       </c>
       <c r="G31">
-        <v>0.35731727045587303</v>
+        <v>0.32336618040819698</v>
       </c>
       <c r="H31">
-        <v>0.35730582329869398</v>
+        <v>0.32339527344886398</v>
       </c>
       <c r="I31">
-        <v>0.35730561556279</v>
+        <v>0.32339580965005799</v>
       </c>
       <c r="J31">
-        <v>0.35767325459108301</v>
+        <v>0.32304991871554101</v>
       </c>
       <c r="K31">
-        <v>0.35767325459108301</v>
+        <v>0.32304991871554101</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1520,34 +1520,34 @@
         <v>35247</v>
       </c>
       <c r="B32">
-        <v>0.32363554368844899</v>
+        <v>0.30738252485246997</v>
       </c>
       <c r="C32">
-        <v>0.32387030608892098</v>
+        <v>0.30693137204505699</v>
       </c>
       <c r="D32">
-        <v>0.32328238718418101</v>
+        <v>0.30701649649067497</v>
       </c>
       <c r="E32">
-        <v>0.32409600823637602</v>
+        <v>0.30693846414110898</v>
       </c>
       <c r="F32">
-        <v>0.32339250158910199</v>
+        <v>0.307508072880945</v>
       </c>
       <c r="G32">
-        <v>0.32336618040819698</v>
+        <v>0.30751793284659301</v>
       </c>
       <c r="H32">
-        <v>0.32339527344886398</v>
+        <v>0.30750524515585997</v>
       </c>
       <c r="I32">
-        <v>0.32339580965005799</v>
+        <v>0.30750495686036899</v>
       </c>
       <c r="J32">
-        <v>0.32304991871554101</v>
+        <v>0.30772458446916001</v>
       </c>
       <c r="K32">
-        <v>0.32304991871554101</v>
+        <v>0.30772458446916001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1555,34 +1555,34 @@
         <v>35339</v>
       </c>
       <c r="B33">
-        <v>0.30738252485246997</v>
+        <v>0.34798000722754402</v>
       </c>
       <c r="C33">
-        <v>0.30693137204505699</v>
+        <v>0.347989337442351</v>
       </c>
       <c r="D33">
-        <v>0.30701649649067497</v>
+        <v>0.34831559152363301</v>
       </c>
       <c r="E33">
-        <v>0.30693846414110898</v>
+        <v>0.34807843412039702</v>
       </c>
       <c r="F33">
-        <v>0.307508072880945</v>
+        <v>0.34800857185999301</v>
       </c>
       <c r="G33">
-        <v>0.30751793284659301</v>
+        <v>0.348016322559212</v>
       </c>
       <c r="H33">
-        <v>0.30750524515585997</v>
+        <v>0.34800900343451402</v>
       </c>
       <c r="I33">
-        <v>0.30750495686036899</v>
+        <v>0.34800890824175601</v>
       </c>
       <c r="J33">
-        <v>0.30772458446916001</v>
+        <v>0.34780898599951099</v>
       </c>
       <c r="K33">
-        <v>0.30772458446916001</v>
+        <v>0.34780898599951099</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1590,34 +1590,34 @@
         <v>35431</v>
       </c>
       <c r="B34">
-        <v>0.34798000722754402</v>
+        <v>0.35341884216356301</v>
       </c>
       <c r="C34">
-        <v>0.347989337442351</v>
+        <v>0.35379827355190102</v>
       </c>
       <c r="D34">
-        <v>0.34831559152363301</v>
+        <v>0.35413045533665699</v>
       </c>
       <c r="E34">
-        <v>0.34807843412039702</v>
+        <v>0.353266516941804</v>
       </c>
       <c r="F34">
-        <v>0.34800857185999301</v>
+        <v>0.35303129197260802</v>
       </c>
       <c r="G34">
-        <v>0.348016322559212</v>
+        <v>0.35304168949868597</v>
       </c>
       <c r="H34">
-        <v>0.34800900343451402</v>
+        <v>0.35303322751412097</v>
       </c>
       <c r="I34">
-        <v>0.34800890824175601</v>
+        <v>0.353033169228956</v>
       </c>
       <c r="J34">
-        <v>0.34780898599951099</v>
+        <v>0.35371386755009099</v>
       </c>
       <c r="K34">
-        <v>0.34780898599951099</v>
+        <v>0.35371386755009099</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1625,34 +1625,34 @@
         <v>35521</v>
       </c>
       <c r="B35">
-        <v>0.35341884216356301</v>
+        <v>0.33304022409511003</v>
       </c>
       <c r="C35">
-        <v>0.35379827355190102</v>
+        <v>0.33333115982658201</v>
       </c>
       <c r="D35">
-        <v>0.35413045533665699</v>
+        <v>0.33237298088468997</v>
       </c>
       <c r="E35">
-        <v>0.353266516941804</v>
+        <v>0.33359562108965102</v>
       </c>
       <c r="F35">
-        <v>0.35303129197260802</v>
+        <v>0.333498053578689</v>
       </c>
       <c r="G35">
-        <v>0.35304168949868597</v>
+        <v>0.33346030409792399</v>
       </c>
       <c r="H35">
-        <v>0.35303322751412097</v>
+        <v>0.33350305086638399</v>
       </c>
       <c r="I35">
-        <v>0.353033169228956</v>
+        <v>0.33350386038667901</v>
       </c>
       <c r="J35">
-        <v>0.35371386755009099</v>
+        <v>0.33237169830476299</v>
       </c>
       <c r="K35">
-        <v>0.35371386755009099</v>
+        <v>0.33237169830476299</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1660,34 +1660,34 @@
         <v>35612</v>
       </c>
       <c r="B36">
-        <v>0.33304022409511003</v>
+        <v>0.33198795051637298</v>
       </c>
       <c r="C36">
-        <v>0.33333115982658201</v>
+        <v>0.33068328708314099</v>
       </c>
       <c r="D36">
-        <v>0.33237298088468997</v>
+        <v>0.33107208683081402</v>
       </c>
       <c r="E36">
-        <v>0.33359562108965102</v>
+        <v>0.331323851423517</v>
       </c>
       <c r="F36">
-        <v>0.333498053578689</v>
+        <v>0.33211636233384001</v>
       </c>
       <c r="G36">
-        <v>0.33346030409792399</v>
+        <v>0.33215019282683</v>
       </c>
       <c r="H36">
-        <v>0.33350305086638399</v>
+        <v>0.33210030614228098</v>
       </c>
       <c r="I36">
-        <v>0.33350386038667901</v>
+        <v>0.33209897843116498</v>
       </c>
       <c r="J36">
-        <v>0.33237169830476299</v>
+        <v>0.33293236328598003</v>
       </c>
       <c r="K36">
-        <v>0.33237169830476299</v>
+        <v>0.33293236328598003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,34 +1695,34 @@
         <v>35704</v>
       </c>
       <c r="B37">
-        <v>0.33198795051637298</v>
+        <v>0.39058445670072001</v>
       </c>
       <c r="C37">
-        <v>0.33068328708314099</v>
+        <v>0.39134718946031999</v>
       </c>
       <c r="D37">
-        <v>0.33107208683081402</v>
+        <v>0.39179375728274701</v>
       </c>
       <c r="E37">
-        <v>0.331323851423517</v>
+        <v>0.39110075958196699</v>
       </c>
       <c r="F37">
-        <v>0.33211636233384001</v>
+        <v>0.390627621964242</v>
       </c>
       <c r="G37">
-        <v>0.33215019282683</v>
+        <v>0.39062296843441002</v>
       </c>
       <c r="H37">
-        <v>0.33210030614228098</v>
+        <v>0.39063009227372097</v>
       </c>
       <c r="I37">
-        <v>0.33209897843116498</v>
+        <v>0.39063032211086002</v>
       </c>
       <c r="J37">
-        <v>0.33293236328598003</v>
+        <v>0.39044680099866302</v>
       </c>
       <c r="K37">
-        <v>0.33293236328598003</v>
+        <v>0.39044680099866302</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1730,34 +1730,34 @@
         <v>35796</v>
       </c>
       <c r="B38">
-        <v>0.39058445670072001</v>
+        <v>0.395352722485384</v>
       </c>
       <c r="C38">
-        <v>0.39134718946031999</v>
+        <v>0.39591432431316897</v>
       </c>
       <c r="D38">
-        <v>0.39179375728274701</v>
+        <v>0.39533608550879701</v>
       </c>
       <c r="E38">
-        <v>0.39110075958196699</v>
+        <v>0.39457143970116598</v>
       </c>
       <c r="F38">
-        <v>0.390627621964242</v>
+        <v>0.393345150908814</v>
       </c>
       <c r="G38">
-        <v>0.39062296843441002</v>
+        <v>0.39333677086435398</v>
       </c>
       <c r="H38">
-        <v>0.39063009227372097</v>
+        <v>0.39337013423791101</v>
       </c>
       <c r="I38">
-        <v>0.39063032211086002</v>
+        <v>0.39337153866067498</v>
       </c>
       <c r="J38">
-        <v>0.39044680099866302</v>
+        <v>0.39364735775037102</v>
       </c>
       <c r="K38">
-        <v>0.39044680099866302</v>
+        <v>0.39364735775037102</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1765,34 +1765,34 @@
         <v>35886</v>
       </c>
       <c r="B39">
-        <v>0.395352722485384</v>
+        <v>0.45033549406595802</v>
       </c>
       <c r="C39">
-        <v>0.39591432431316897</v>
+        <v>0.45053651930168398</v>
       </c>
       <c r="D39">
-        <v>0.39533608550879701</v>
+        <v>0.450517393473434</v>
       </c>
       <c r="E39">
-        <v>0.39457143970116598</v>
+        <v>0.45201938972811101</v>
       </c>
       <c r="F39">
-        <v>0.393345150908814</v>
+        <v>0.45307436612413199</v>
       </c>
       <c r="G39">
-        <v>0.39333677086435398</v>
+        <v>0.45305385800134201</v>
       </c>
       <c r="H39">
-        <v>0.39337013423791101</v>
+        <v>0.45306433746677499</v>
       </c>
       <c r="I39">
-        <v>0.39337153866067498</v>
+        <v>0.45306403553442698</v>
       </c>
       <c r="J39">
-        <v>0.39364735775037102</v>
+        <v>0.45204306233282199</v>
       </c>
       <c r="K39">
-        <v>0.39364735775037102</v>
+        <v>0.45204306233282199</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,34 +1800,34 @@
         <v>35977</v>
       </c>
       <c r="B40">
-        <v>0.45033549406595802</v>
+        <v>0.390223597379666</v>
       </c>
       <c r="C40">
-        <v>0.45053651930168398</v>
+        <v>0.38790405647363002</v>
       </c>
       <c r="D40">
-        <v>0.450517393473434</v>
+        <v>0.38833935390456698</v>
       </c>
       <c r="E40">
-        <v>0.45201938972811101</v>
+        <v>0.38822136811149399</v>
       </c>
       <c r="F40">
-        <v>0.45307436612413199</v>
+        <v>0.39011482383714302</v>
       </c>
       <c r="G40">
-        <v>0.45305385800134201</v>
+        <v>0.39016554314082602</v>
       </c>
       <c r="H40">
-        <v>0.45306433746677499</v>
+        <v>0.39008463611416599</v>
       </c>
       <c r="I40">
-        <v>0.45306403553442698</v>
+        <v>0.39008229212300899</v>
       </c>
       <c r="J40">
-        <v>0.45204306233282199</v>
+        <v>0.39138245680529199</v>
       </c>
       <c r="K40">
-        <v>0.45204306233282199</v>
+        <v>0.39138245680529199</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1835,34 +1835,34 @@
         <v>36069</v>
       </c>
       <c r="B41">
-        <v>0.390223597379666</v>
+        <v>0.367140246189613</v>
       </c>
       <c r="C41">
-        <v>0.38790405647363002</v>
+        <v>0.36878209196350198</v>
       </c>
       <c r="D41">
-        <v>0.38833935390456698</v>
+        <v>0.369179128109071</v>
       </c>
       <c r="E41">
-        <v>0.38822136811149399</v>
+        <v>0.36834090884454002</v>
       </c>
       <c r="F41">
-        <v>0.39011482383714302</v>
+        <v>0.36594947009775097</v>
       </c>
       <c r="G41">
-        <v>0.39016554314082602</v>
+        <v>0.365926851355311</v>
       </c>
       <c r="H41">
-        <v>0.39008463611416599</v>
+        <v>0.365959963517554</v>
       </c>
       <c r="I41">
-        <v>0.39008229212300899</v>
+        <v>0.365961288854184</v>
       </c>
       <c r="J41">
-        <v>0.39138245680529199</v>
+        <v>0.36520650843744901</v>
       </c>
       <c r="K41">
-        <v>0.39138245680529199</v>
+        <v>0.36520650843744901</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1870,34 +1870,34 @@
         <v>36161</v>
       </c>
       <c r="B42">
-        <v>0.367140246189613</v>
+        <v>0.34217211288372301</v>
       </c>
       <c r="C42">
-        <v>0.36878209196350198</v>
+        <v>0.34311982964069498</v>
       </c>
       <c r="D42">
-        <v>0.369179128109071</v>
+        <v>0.34144597414442501</v>
       </c>
       <c r="E42">
-        <v>0.36834090884454002</v>
+        <v>0.34099335161928801</v>
       </c>
       <c r="F42">
-        <v>0.36594947009775097</v>
+        <v>0.340174447900497</v>
       </c>
       <c r="G42">
-        <v>0.365926851355311</v>
+        <v>0.34015112518344598</v>
       </c>
       <c r="H42">
-        <v>0.365959963517554</v>
+        <v>0.34022118475069102</v>
       </c>
       <c r="I42">
-        <v>0.365961288854184</v>
+        <v>0.34022374676533101</v>
       </c>
       <c r="J42">
-        <v>0.36520650843744901</v>
+        <v>0.340138956496219</v>
       </c>
       <c r="K42">
-        <v>0.36520650843744901</v>
+        <v>0.340138956496219</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1905,34 +1905,34 @@
         <v>36251</v>
       </c>
       <c r="B43">
-        <v>0.34217211288372301</v>
+        <v>0.34630165586133699</v>
       </c>
       <c r="C43">
-        <v>0.34311982964069498</v>
+        <v>0.34626393305090403</v>
       </c>
       <c r="D43">
-        <v>0.34144597414442501</v>
+        <v>0.347378102966656</v>
       </c>
       <c r="E43">
-        <v>0.34099335161928801</v>
+        <v>0.34930580737619799</v>
       </c>
       <c r="F43">
-        <v>0.340174447900497</v>
+        <v>0.34935802931589799</v>
       </c>
       <c r="G43">
-        <v>0.34015112518344598</v>
+        <v>0.34935156382006</v>
       </c>
       <c r="H43">
-        <v>0.34022118475069102</v>
+        <v>0.34933133329913801</v>
       </c>
       <c r="I43">
-        <v>0.34022374676533101</v>
+        <v>0.34932931841144899</v>
       </c>
       <c r="J43">
-        <v>0.340138956496219</v>
+        <v>0.34923652329640698</v>
       </c>
       <c r="K43">
-        <v>0.340138956496219</v>
+        <v>0.34923652329640698</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1940,34 +1940,34 @@
         <v>36342</v>
       </c>
       <c r="B44">
-        <v>0.34630165586133699</v>
+        <v>0.39325068092543197</v>
       </c>
       <c r="C44">
-        <v>0.34626393305090403</v>
+        <v>0.389840838231645</v>
       </c>
       <c r="D44">
-        <v>0.347378102966656</v>
+        <v>0.39040218196301102</v>
       </c>
       <c r="E44">
-        <v>0.34930580737619799</v>
+        <v>0.38943303283788</v>
       </c>
       <c r="F44">
-        <v>0.34935802931589799</v>
+        <v>0.396121872437597</v>
       </c>
       <c r="G44">
-        <v>0.34935156382006</v>
+        <v>0.39619321544529101</v>
       </c>
       <c r="H44">
-        <v>0.34933133329913801</v>
+        <v>0.39607717344907301</v>
       </c>
       <c r="I44">
-        <v>0.34932931841144899</v>
+        <v>0.39607393117305401</v>
       </c>
       <c r="J44">
-        <v>0.34923652329640698</v>
+        <v>0.39759856746029698</v>
       </c>
       <c r="K44">
-        <v>0.34923652329640698</v>
+        <v>0.39759856746029698</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1975,34 +1975,34 @@
         <v>36434</v>
       </c>
       <c r="B45">
-        <v>0.39325068092543197</v>
+        <v>0.38414814487599502</v>
       </c>
       <c r="C45">
-        <v>0.389840838231645</v>
+        <v>0.38681959681530698</v>
       </c>
       <c r="D45">
-        <v>0.39040218196301102</v>
+        <v>0.38700276166098901</v>
       </c>
       <c r="E45">
-        <v>0.38943303283788</v>
+        <v>0.38612663333175101</v>
       </c>
       <c r="F45">
-        <v>0.396121872437597</v>
+        <v>0.37744027684408199</v>
       </c>
       <c r="G45">
-        <v>0.39619321544529101</v>
+        <v>0.37739751967037999</v>
       </c>
       <c r="H45">
-        <v>0.39607717344907301</v>
+        <v>0.377460605025917</v>
       </c>
       <c r="I45">
-        <v>0.39607393117305401</v>
+        <v>0.37746372874767697</v>
       </c>
       <c r="J45">
-        <v>0.39759856746029698</v>
+        <v>0.37601690961431</v>
       </c>
       <c r="K45">
-        <v>0.39759856746029698</v>
+        <v>0.37601690961431</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2010,34 +2010,34 @@
         <v>36526</v>
       </c>
       <c r="B46">
-        <v>0.38414814487599502</v>
+        <v>0.37935379020304899</v>
       </c>
       <c r="C46">
-        <v>0.38681959681530698</v>
+        <v>0.380491355869918</v>
       </c>
       <c r="D46">
-        <v>0.38700276166098901</v>
+        <v>0.37722996037545797</v>
       </c>
       <c r="E46">
-        <v>0.38612663333175101</v>
+        <v>0.37763241829545802</v>
       </c>
       <c r="F46">
-        <v>0.37744027684408199</v>
+        <v>0.37859122760450198</v>
       </c>
       <c r="G46">
-        <v>0.37739751967037999</v>
+        <v>0.37855021426794999</v>
       </c>
       <c r="H46">
-        <v>0.377460605025917</v>
+        <v>0.37865994800295599</v>
       </c>
       <c r="I46">
-        <v>0.37746372874767697</v>
+        <v>0.378663730468834</v>
       </c>
       <c r="J46">
-        <v>0.37601690961431</v>
+        <v>0.37791943645339099</v>
       </c>
       <c r="K46">
-        <v>0.37601690961431</v>
+        <v>0.37791943645339099</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2045,34 +2045,34 @@
         <v>36617</v>
       </c>
       <c r="B47">
-        <v>0.37935379020304899</v>
+        <v>0.405222849828069</v>
       </c>
       <c r="C47">
-        <v>0.380491355869918</v>
+        <v>0.40496996472528901</v>
       </c>
       <c r="D47">
-        <v>0.37722996037545797</v>
+        <v>0.40825136697048298</v>
       </c>
       <c r="E47">
-        <v>0.37763241829545802</v>
+        <v>0.41064261166722998</v>
       </c>
       <c r="F47">
-        <v>0.37859122760450198</v>
+        <v>0.41249218037247798</v>
       </c>
       <c r="G47">
-        <v>0.37855021426794999</v>
+        <v>0.412513826113654</v>
       </c>
       <c r="H47">
-        <v>0.37865994800295599</v>
+        <v>0.41245384898981502</v>
       </c>
       <c r="I47">
-        <v>0.378663730468834</v>
+        <v>0.41245079263909201</v>
       </c>
       <c r="J47">
-        <v>0.37791943645339099</v>
+        <v>0.41331305864901702</v>
       </c>
       <c r="K47">
-        <v>0.37791943645339099</v>
+        <v>0.41331305864901702</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2080,34 +2080,34 @@
         <v>36708</v>
       </c>
       <c r="B48">
-        <v>0.405222849828069</v>
+        <v>0.42233036757852999</v>
       </c>
       <c r="C48">
-        <v>0.40496996472528901</v>
+        <v>0.41827160818362702</v>
       </c>
       <c r="D48">
-        <v>0.40825136697048298</v>
+        <v>0.41847764509228602</v>
       </c>
       <c r="E48">
-        <v>0.41064261166722998</v>
+        <v>0.41552698177927699</v>
       </c>
       <c r="F48">
-        <v>0.41249218037247798</v>
+        <v>0.42565089310041998</v>
       </c>
       <c r="G48">
-        <v>0.412513826113654</v>
+        <v>0.42572048293643999</v>
       </c>
       <c r="H48">
-        <v>0.41245384898981502</v>
+        <v>0.42557100170906897</v>
       </c>
       <c r="I48">
-        <v>0.41245079263909201</v>
+        <v>0.42556211421993301</v>
       </c>
       <c r="J48">
-        <v>0.41331305864901702</v>
+        <v>0.42724011728879002</v>
       </c>
       <c r="K48">
-        <v>0.41331305864901702</v>
+        <v>0.42724011728879002</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,156 +2115,144 @@
         <v>36800</v>
       </c>
       <c r="B49">
-        <v>0.42233036757852999</v>
+        <v>0.41316594383492899</v>
       </c>
       <c r="C49">
-        <v>0.41827160818362702</v>
+        <v>0.41602349354948198</v>
       </c>
       <c r="D49">
-        <v>0.41847764509228602</v>
+        <v>0.41563471112335099</v>
       </c>
       <c r="E49">
-        <v>0.41552698177927699</v>
+        <v>0.41537322092699602</v>
       </c>
       <c r="F49">
-        <v>0.42565089310041998</v>
+        <v>0.39795648725266303</v>
       </c>
       <c r="G49">
-        <v>0.42572048293643999</v>
+        <v>0.39790202182807499</v>
       </c>
       <c r="H49">
-        <v>0.42557100170906897</v>
+        <v>0.39801091827097301</v>
       </c>
       <c r="I49">
-        <v>0.42556211421993301</v>
+        <v>0.39802049304966602</v>
       </c>
       <c r="J49">
-        <v>0.42724011728879002</v>
+        <v>0.396327447655965</v>
       </c>
       <c r="K49">
-        <v>0.42724011728879002</v>
+        <v>0.396327447655965</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>36892</v>
       </c>
-      <c r="B50">
-        <v>0.41316594383492899</v>
-      </c>
       <c r="C50">
-        <v>0.41602349354948198</v>
+        <v>0.47575073819738101</v>
       </c>
       <c r="D50">
-        <v>0.41563471112335099</v>
+        <v>0.47182390068243601</v>
       </c>
       <c r="E50">
-        <v>0.41537322092699602</v>
+        <v>0.47293553020414603</v>
       </c>
       <c r="F50">
-        <v>0.39795648725266303</v>
+        <v>0.47693056319719901</v>
       </c>
       <c r="G50">
-        <v>0.39790202182807499</v>
+        <v>0.47688057352729002</v>
       </c>
       <c r="H50">
-        <v>0.39801091827097301</v>
+        <v>0.47703511531607301</v>
       </c>
       <c r="I50">
-        <v>0.39802049304966602</v>
+        <v>0.477046184970286</v>
       </c>
       <c r="J50">
-        <v>0.396327447655965</v>
+        <v>0.47575971054904997</v>
       </c>
       <c r="K50">
-        <v>0.396327447655965</v>
+        <v>0.47575971054904997</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>36982</v>
       </c>
-      <c r="C51">
-        <v>0.47575073819738101</v>
-      </c>
       <c r="D51">
-        <v>0.47182390068243601</v>
+        <v>0.38064332227373399</v>
       </c>
       <c r="E51">
-        <v>0.47293553020414603</v>
+        <v>0.38310818660488799</v>
       </c>
       <c r="F51">
-        <v>0.47693056319719901</v>
+        <v>0.387663325205231</v>
       </c>
       <c r="G51">
-        <v>0.47688057352729002</v>
+        <v>0.38770395386185902</v>
       </c>
       <c r="H51">
-        <v>0.47703511531607301</v>
+        <v>0.38758815346889203</v>
       </c>
       <c r="I51">
-        <v>0.477046184970286</v>
+        <v>0.38757737537633102</v>
       </c>
       <c r="J51">
-        <v>0.47575971054904997</v>
+        <v>0.38927306172179998</v>
       </c>
       <c r="K51">
-        <v>0.47575971054904997</v>
+        <v>0.38927306172179998</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>37073</v>
       </c>
-      <c r="D52">
-        <v>0.38064332227373399</v>
-      </c>
       <c r="E52">
-        <v>0.38310818660488799</v>
+        <v>0.37554189617543599</v>
       </c>
       <c r="F52">
-        <v>0.387663325205231</v>
+        <v>0.39199660472243297</v>
       </c>
       <c r="G52">
-        <v>0.38770395386185902</v>
+        <v>0.39208843954420702</v>
       </c>
       <c r="H52">
-        <v>0.38758815346889203</v>
+        <v>0.39177372817949502</v>
       </c>
       <c r="I52">
-        <v>0.38757737537633102</v>
+        <v>0.39173626510772902</v>
       </c>
       <c r="J52">
-        <v>0.38927306172179998</v>
+        <v>0.39260075821575602</v>
       </c>
       <c r="K52">
-        <v>0.38927306172179998</v>
+        <v>0.39260075821575602</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>37165</v>
       </c>
-      <c r="E53">
-        <v>0.37554189617543599</v>
-      </c>
       <c r="F53">
-        <v>0.39199660472243297</v>
+        <v>0.36956947725780598</v>
       </c>
       <c r="G53">
-        <v>0.39208843954420702</v>
+        <v>0.36946378555607201</v>
       </c>
       <c r="H53">
-        <v>0.39177372817949502</v>
+        <v>0.369906573170734</v>
       </c>
       <c r="I53">
-        <v>0.39173626510772902</v>
+        <v>0.36997120108737802</v>
       </c>
       <c r="J53">
-        <v>0.39260075821575602</v>
+        <v>0.36871087965419003</v>
       </c>
       <c r="K53">
-        <v>0.39260075821575602</v>
+        <v>0.36871087965419003</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2272,22 +2260,22 @@
         <v>37257</v>
       </c>
       <c r="F54">
-        <v>0.36956947725780598</v>
+        <v>0.34598358448238598</v>
       </c>
       <c r="G54">
-        <v>0.36946378555607201</v>
+        <v>0.34596715513419501</v>
       </c>
       <c r="H54">
-        <v>0.369906573170734</v>
+        <v>0.345999102433523</v>
       </c>
       <c r="I54">
-        <v>0.36997120108737802</v>
+        <v>0.345981245519831</v>
       </c>
       <c r="J54">
-        <v>0.36871087965419003</v>
+        <v>0.34526717819296898</v>
       </c>
       <c r="K54">
-        <v>0.36871087965419003</v>
+        <v>0.34526717819296898</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2295,22 +2283,22 @@
         <v>37347</v>
       </c>
       <c r="F55">
-        <v>0.34598358448238598</v>
+        <v>0.38070080489318397</v>
       </c>
       <c r="G55">
-        <v>0.34596715513419501</v>
+        <v>0.38073768828855598</v>
       </c>
       <c r="H55">
-        <v>0.345999102433523</v>
+        <v>0.38048956485017998</v>
       </c>
       <c r="I55">
-        <v>0.345981245519831</v>
+        <v>0.38047025711677601</v>
       </c>
       <c r="J55">
-        <v>0.34526717819296898</v>
+        <v>0.38153446789533502</v>
       </c>
       <c r="K55">
-        <v>0.34526717819296898</v>
+        <v>0.38153446789533502</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2318,22 +2306,22 @@
         <v>37438</v>
       </c>
       <c r="F56">
-        <v>0.38070080489318397</v>
+        <v>0.27963217086752701</v>
       </c>
       <c r="G56">
-        <v>0.38073768828855598</v>
+        <v>0.27969090398768998</v>
       </c>
       <c r="H56">
-        <v>0.38048956485017998</v>
+        <v>0.27930745972374599</v>
       </c>
       <c r="I56">
-        <v>0.38047025711677601</v>
+        <v>0.27925803796130699</v>
       </c>
       <c r="J56">
-        <v>0.38153446789533502</v>
+        <v>0.27942371727648901</v>
       </c>
       <c r="K56">
-        <v>0.38153446789533502</v>
+        <v>0.27942371727648901</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2341,22 +2329,22 @@
         <v>37530</v>
       </c>
       <c r="F57">
-        <v>0.27963217086752701</v>
+        <v>0.30982844957027</v>
       </c>
       <c r="G57">
-        <v>0.27969090398768998</v>
+        <v>0.30972490958237198</v>
       </c>
       <c r="H57">
-        <v>0.27930745972374599</v>
+        <v>0.310568954778986</v>
       </c>
       <c r="I57">
-        <v>0.27925803796130699</v>
+        <v>0.310699787218565</v>
       </c>
       <c r="J57">
-        <v>0.27942371727648901</v>
+        <v>0.31030816498516101</v>
       </c>
       <c r="K57">
-        <v>0.27942371727648901</v>
+        <v>0.31030816498516101</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,22 +2352,22 @@
         <v>37622</v>
       </c>
       <c r="F58">
-        <v>0.30982844957027</v>
+        <v>0.26434959379922002</v>
       </c>
       <c r="G58">
-        <v>0.30972490958237198</v>
+        <v>0.26443388518690097</v>
       </c>
       <c r="H58">
-        <v>0.310568954778986</v>
+        <v>0.26427642498912901</v>
       </c>
       <c r="I58">
-        <v>0.310699787218565</v>
+        <v>0.26420478798474001</v>
       </c>
       <c r="J58">
-        <v>0.31030816498516101</v>
+        <v>0.26390532857647903</v>
       </c>
       <c r="K58">
-        <v>0.31030816498516101</v>
+        <v>0.26390532857647903</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2387,22 +2375,22 @@
         <v>37712</v>
       </c>
       <c r="F59">
-        <v>0.26434959379922002</v>
+        <v>0.264870051961484</v>
       </c>
       <c r="G59">
-        <v>0.26443388518690097</v>
+        <v>0.26483141004298699</v>
       </c>
       <c r="H59">
-        <v>0.26427642498912901</v>
+        <v>0.26436505831999402</v>
       </c>
       <c r="I59">
-        <v>0.26420478798474001</v>
+        <v>0.26433365348626697</v>
       </c>
       <c r="J59">
-        <v>0.26390532857647903</v>
+        <v>0.264778441559264</v>
       </c>
       <c r="K59">
-        <v>0.26390532857647903</v>
+        <v>0.264778441559264</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2410,22 +2398,22 @@
         <v>37803</v>
       </c>
       <c r="F60">
-        <v>0.264870051961484</v>
+        <v>0.33691580204705102</v>
       </c>
       <c r="G60">
-        <v>0.26483141004298699</v>
+        <v>0.33693331035528201</v>
       </c>
       <c r="H60">
-        <v>0.26436505831999402</v>
+        <v>0.33643328072356798</v>
       </c>
       <c r="I60">
-        <v>0.26433365348626697</v>
+        <v>0.33638136029993398</v>
       </c>
       <c r="J60">
-        <v>0.264778441559264</v>
+        <v>0.33632114096655102</v>
       </c>
       <c r="K60">
-        <v>0.264778441559264</v>
+        <v>0.33632114096655102</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,22 +2421,22 @@
         <v>37895</v>
       </c>
       <c r="F61">
-        <v>0.33691580204705102</v>
+        <v>0.26676170867750298</v>
       </c>
       <c r="G61">
-        <v>0.33693331035528201</v>
+        <v>0.26655347192908302</v>
       </c>
       <c r="H61">
-        <v>0.33643328072356798</v>
+        <v>0.268065182013842</v>
       </c>
       <c r="I61">
-        <v>0.33638136029993398</v>
+        <v>0.26829810163889001</v>
       </c>
       <c r="J61">
-        <v>0.33632114096655102</v>
+        <v>0.26832756713769002</v>
       </c>
       <c r="K61">
-        <v>0.33632114096655102</v>
+        <v>0.26832756713769002</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2456,22 +2444,22 @@
         <v>37987</v>
       </c>
       <c r="F62">
-        <v>0.26676170867750298</v>
+        <v>0.28358850039779698</v>
       </c>
       <c r="G62">
-        <v>0.26655347192908302</v>
+        <v>0.28408007061865598</v>
       </c>
       <c r="H62">
-        <v>0.268065182013842</v>
+        <v>0.28384530044269102</v>
       </c>
       <c r="I62">
-        <v>0.26829810163889001</v>
+        <v>0.28371886081453901</v>
       </c>
       <c r="J62">
-        <v>0.26832756713769002</v>
+        <v>0.28365222302924498</v>
       </c>
       <c r="K62">
-        <v>0.26832756713769002</v>
+        <v>0.28365222302924498</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2479,22 +2467,22 @@
         <v>38078</v>
       </c>
       <c r="F63">
-        <v>0.28358850039779698</v>
+        <v>0.28204352319784398</v>
       </c>
       <c r="G63">
-        <v>0.28408007061865598</v>
+        <v>0.28185315219345197</v>
       </c>
       <c r="H63">
-        <v>0.28384530044269102</v>
+        <v>0.28082950285938602</v>
       </c>
       <c r="I63">
-        <v>0.28371886081453901</v>
+        <v>0.28059413825171398</v>
       </c>
       <c r="J63">
-        <v>0.28365222302924498</v>
+        <v>0.27998935018940802</v>
       </c>
       <c r="K63">
-        <v>0.28365222302924498</v>
+        <v>0.27998935018940802</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2502,22 +2490,22 @@
         <v>38169</v>
       </c>
       <c r="F64">
-        <v>0.28204352319784398</v>
+        <v>0.30041355557069999</v>
       </c>
       <c r="G64">
-        <v>0.28185315219345197</v>
+        <v>0.30000501525921203</v>
       </c>
       <c r="H64">
-        <v>0.28082950285938602</v>
+        <v>0.298562085101507</v>
       </c>
       <c r="I64">
-        <v>0.28059413825171398</v>
+        <v>0.29856085087593598</v>
       </c>
       <c r="J64">
-        <v>0.27998935018940802</v>
+        <v>0.299198176171736</v>
       </c>
       <c r="K64">
-        <v>0.27998935018940802</v>
+        <v>0.299198176171736</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,22 +2513,22 @@
         <v>38261</v>
       </c>
       <c r="F65">
-        <v>0.30041355557069999</v>
+        <v>0.44457006546386202</v>
       </c>
       <c r="G65">
-        <v>0.30000501525921203</v>
+        <v>0.44437672003719703</v>
       </c>
       <c r="H65">
-        <v>0.298562085101507</v>
+        <v>0.44813482603143001</v>
       </c>
       <c r="I65">
-        <v>0.29856085087593598</v>
+        <v>0.44925667244384898</v>
       </c>
       <c r="J65">
-        <v>0.299198176171736</v>
+        <v>0.45072636255059401</v>
       </c>
       <c r="K65">
-        <v>0.299198176171736</v>
+        <v>0.45072636255059401</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2548,22 +2536,22 @@
         <v>38353</v>
       </c>
       <c r="F66">
-        <v>0.44457006546386202</v>
+        <v>0.35124406434438599</v>
       </c>
       <c r="G66">
-        <v>0.44437672003719703</v>
+        <v>0.351898084004034</v>
       </c>
       <c r="H66">
-        <v>0.44813482603143001</v>
+        <v>0.35132015760091401</v>
       </c>
       <c r="I66">
-        <v>0.44925667244384898</v>
+        <v>0.35009295485018699</v>
       </c>
       <c r="J66">
-        <v>0.45072636255059401</v>
+        <v>0.34737938630135701</v>
       </c>
       <c r="K66">
-        <v>0.45072636255059401</v>
+        <v>0.34737938630135701</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,22 +2559,22 @@
         <v>38443</v>
       </c>
       <c r="F67">
-        <v>0.35124406434438599</v>
+        <v>0.32672368231600402</v>
       </c>
       <c r="G67">
-        <v>0.351898084004034</v>
+        <v>0.32718475296426303</v>
       </c>
       <c r="H67">
-        <v>0.35132015760091401</v>
+        <v>0.325661088725542</v>
       </c>
       <c r="I67">
-        <v>0.35009295485018699</v>
+        <v>0.32547788622513302</v>
       </c>
       <c r="J67">
-        <v>0.34737938630135701</v>
+        <v>0.32513784720983702</v>
       </c>
       <c r="K67">
-        <v>0.34737938630135701</v>
+        <v>0.32513784720983702</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2594,22 +2582,22 @@
         <v>38534</v>
       </c>
       <c r="F68">
-        <v>0.32672368231600402</v>
+        <v>0.36179141691505801</v>
       </c>
       <c r="G68">
-        <v>0.32718475296426303</v>
+        <v>0.36077929251057</v>
       </c>
       <c r="H68">
-        <v>0.325661088725542</v>
+        <v>0.35630618826478599</v>
       </c>
       <c r="I68">
-        <v>0.32547788622513302</v>
+        <v>0.35612804626539701</v>
       </c>
       <c r="J68">
-        <v>0.32513784720983702</v>
+        <v>0.35876312897767398</v>
       </c>
       <c r="K68">
-        <v>0.32513784720983702</v>
+        <v>0.35876312897767398</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,22 +2605,22 @@
         <v>38626</v>
       </c>
       <c r="F69">
-        <v>0.36179141691505801</v>
+        <v>0.36355826128631102</v>
       </c>
       <c r="G69">
-        <v>0.36077929251057</v>
+        <v>0.36310732121306999</v>
       </c>
       <c r="H69">
-        <v>0.35630618826478599</v>
+        <v>0.37134670726771801</v>
       </c>
       <c r="I69">
-        <v>0.35612804626539701</v>
+        <v>0.37466974335716202</v>
       </c>
       <c r="J69">
-        <v>0.35876312897767398</v>
+        <v>0.37656244669045402</v>
       </c>
       <c r="K69">
-        <v>0.35876312897767398</v>
+        <v>0.37656244669045402</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2640,22 +2628,22 @@
         <v>38718</v>
       </c>
       <c r="F70">
-        <v>0.36355826128631102</v>
+        <v>0.350721846125509</v>
       </c>
       <c r="G70">
-        <v>0.36310732121306999</v>
+        <v>0.35150684620102601</v>
       </c>
       <c r="H70">
-        <v>0.37134670726771801</v>
+        <v>0.350303280788824</v>
       </c>
       <c r="I70">
-        <v>0.37466974335716202</v>
+        <v>0.34655581729088702</v>
       </c>
       <c r="J70">
-        <v>0.37656244669045402</v>
+        <v>0.34098933230874001</v>
       </c>
       <c r="K70">
-        <v>0.37656244669045402</v>
+        <v>0.34098933230874001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2663,22 +2651,22 @@
         <v>38808</v>
       </c>
       <c r="F71">
-        <v>0.350721846125509</v>
+        <v>0.366767659685451</v>
       </c>
       <c r="G71">
-        <v>0.35150684620102601</v>
+        <v>0.36810311141795299</v>
       </c>
       <c r="H71">
-        <v>0.350303280788824</v>
+        <v>0.36586278136373801</v>
       </c>
       <c r="I71">
-        <v>0.34655581729088702</v>
+        <v>0.365951998342672</v>
       </c>
       <c r="J71">
-        <v>0.34098933230874001</v>
+        <v>0.36493720672172297</v>
       </c>
       <c r="K71">
-        <v>0.34098933230874001</v>
+        <v>0.36493720672172297</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,22 +2674,22 @@
         <v>38899</v>
       </c>
       <c r="F72">
-        <v>0.366767659685451</v>
+        <v>0.35560599879133298</v>
       </c>
       <c r="G72">
-        <v>0.36810311141795299</v>
+        <v>0.35379672485711899</v>
       </c>
       <c r="H72">
-        <v>0.36586278136373801</v>
+        <v>0.34574270205447399</v>
       </c>
       <c r="I72">
-        <v>0.365951998342672</v>
+        <v>0.34548997517209201</v>
       </c>
       <c r="J72">
-        <v>0.36493720672172297</v>
+        <v>0.35176750314649202</v>
       </c>
       <c r="K72">
-        <v>0.36493720672172297</v>
+        <v>0.35176750314649202</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -2709,22 +2697,22 @@
         <v>38991</v>
       </c>
       <c r="F73">
-        <v>0.35560599879133298</v>
+        <v>0.32538876352645502</v>
       </c>
       <c r="G73">
-        <v>0.35379672485711899</v>
+        <v>0.32479113045833802</v>
       </c>
       <c r="H73">
-        <v>0.34574270205447399</v>
+        <v>0.33808961133628701</v>
       </c>
       <c r="I73">
-        <v>0.34548997517209201</v>
+        <v>0.344010933041557</v>
       </c>
       <c r="J73">
-        <v>0.35176750314649202</v>
+        <v>0.34702940186999298</v>
       </c>
       <c r="K73">
-        <v>0.35176750314649202</v>
+        <v>0.34702940186999298</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -2732,22 +2720,22 @@
         <v>39083</v>
       </c>
       <c r="F74">
-        <v>0.32538876352645502</v>
+        <v>0.389308565678258</v>
       </c>
       <c r="G74">
-        <v>0.32479113045833802</v>
+        <v>0.38980498874102898</v>
       </c>
       <c r="H74">
-        <v>0.33808961133628701</v>
+        <v>0.38779659835987601</v>
       </c>
       <c r="I74">
-        <v>0.344010933041557</v>
+        <v>0.38112585815965699</v>
       </c>
       <c r="J74">
-        <v>0.34702940186999298</v>
+        <v>0.37087434470541603</v>
       </c>
       <c r="K74">
-        <v>0.34702940186999298</v>
+        <v>0.37087434470541603</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -2755,22 +2743,22 @@
         <v>39173</v>
       </c>
       <c r="F75">
-        <v>0.389308565678258</v>
+        <v>0.38895466881115498</v>
       </c>
       <c r="G75">
-        <v>0.38980498874102898</v>
+        <v>0.391166446262043</v>
       </c>
       <c r="H75">
-        <v>0.38779659835987601</v>
+        <v>0.388493051542315</v>
       </c>
       <c r="I75">
-        <v>0.38112585815965699</v>
+        <v>0.38906240474153297</v>
       </c>
       <c r="J75">
-        <v>0.37087434470541603</v>
+        <v>0.38701461554363398</v>
       </c>
       <c r="K75">
-        <v>0.37087434470541603</v>
+        <v>0.38701461554363398</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -2778,22 +2766,22 @@
         <v>39264</v>
       </c>
       <c r="F76">
-        <v>0.38895466881115498</v>
+        <v>0.38652727987246099</v>
       </c>
       <c r="G76">
-        <v>0.391166446262043</v>
+        <v>0.38492618734779999</v>
       </c>
       <c r="H76">
-        <v>0.388493051542315</v>
+        <v>0.37350129270198001</v>
       </c>
       <c r="I76">
-        <v>0.38906240474153297</v>
+        <v>0.37311442676369699</v>
       </c>
       <c r="J76">
-        <v>0.38701461554363398</v>
+        <v>0.38471110823407101</v>
       </c>
       <c r="K76">
-        <v>0.38701461554363398</v>
+        <v>0.38471110823407101</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -2801,22 +2789,22 @@
         <v>39356</v>
       </c>
       <c r="F77">
-        <v>0.38652727987246099</v>
+        <v>0.44764075440823498</v>
       </c>
       <c r="G77">
-        <v>0.38492618734779999</v>
+        <v>0.44654402570830698</v>
       </c>
       <c r="H77">
-        <v>0.37350129270198001</v>
+        <v>0.46381964871055598</v>
       </c>
       <c r="I77">
-        <v>0.37311442676369699</v>
+        <v>0.47207432872566202</v>
       </c>
       <c r="J77">
-        <v>0.38471110823407101</v>
+        <v>0.47566171610052599</v>
       </c>
       <c r="K77">
-        <v>0.38471110823407101</v>
+        <v>0.47566171610052599</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -2824,22 +2812,22 @@
         <v>39448</v>
       </c>
       <c r="F78">
-        <v>0.44764075440823498</v>
+        <v>0.359690748071607</v>
       </c>
       <c r="G78">
-        <v>0.44654402570830698</v>
+        <v>0.36030886424206499</v>
       </c>
       <c r="H78">
-        <v>0.46381964871055598</v>
+        <v>0.35783144812269901</v>
       </c>
       <c r="I78">
-        <v>0.47207432872566202</v>
+        <v>0.34862038243622101</v>
       </c>
       <c r="J78">
-        <v>0.47566171610052599</v>
+        <v>0.33358762820536397</v>
       </c>
       <c r="K78">
-        <v>0.47566171610052599</v>
+        <v>0.33358762820536397</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -2847,96 +2835,84 @@
         <v>39539</v>
       </c>
       <c r="F79">
-        <v>0.359690748071607</v>
+        <v>0.40758284831271202</v>
       </c>
       <c r="G79">
-        <v>0.36030886424206499</v>
+        <v>0.41033688177104699</v>
       </c>
       <c r="H79">
-        <v>0.35783144812269901</v>
+        <v>0.40705255786831002</v>
       </c>
       <c r="I79">
-        <v>0.34862038243622101</v>
+        <v>0.40798501927627601</v>
       </c>
       <c r="J79">
-        <v>0.33358762820536397</v>
+        <v>0.40460000814013503</v>
       </c>
       <c r="K79">
-        <v>0.33358762820536397</v>
+        <v>0.40460000814013503</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>39630</v>
       </c>
-      <c r="F80">
-        <v>0.40758284831271202</v>
-      </c>
       <c r="G80">
-        <v>0.41033688177104699</v>
+        <v>0.43625259260907001</v>
       </c>
       <c r="H80">
-        <v>0.40705255786831002</v>
+        <v>0.42357011937106898</v>
       </c>
       <c r="I80">
-        <v>0.40798501927627601</v>
+        <v>0.42299227876746198</v>
       </c>
       <c r="J80">
-        <v>0.40460000814013503</v>
+        <v>0.43933864345424001</v>
       </c>
       <c r="K80">
-        <v>0.40460000814013503</v>
+        <v>0.43933864345424001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>39722</v>
       </c>
-      <c r="G81">
-        <v>0.43625259260907001</v>
-      </c>
       <c r="H81">
-        <v>0.42357011937106898</v>
+        <v>0.36159676170816601</v>
       </c>
       <c r="I81">
-        <v>0.42299227876746198</v>
+        <v>0.37034658465207398</v>
       </c>
       <c r="J81">
-        <v>0.43933864345424001</v>
+        <v>0.37664639339817502</v>
       </c>
       <c r="K81">
-        <v>0.43933864345424001</v>
+        <v>0.37664639339817502</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>39814</v>
       </c>
-      <c r="H82">
-        <v>0.36159676170816601</v>
-      </c>
       <c r="I82">
-        <v>0.37034658465207398</v>
+        <v>0.422310293927394</v>
       </c>
       <c r="J82">
-        <v>0.37664639339817502</v>
+        <v>0.40132493910766398</v>
       </c>
       <c r="K82">
-        <v>0.37664639339817502</v>
+        <v>0.40132493910766398</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>39904</v>
       </c>
-      <c r="I83">
-        <v>0.422310293927394</v>
-      </c>
       <c r="J83">
-        <v>0.40132493910766398</v>
+        <v>0.33799332778497598</v>
       </c>
       <c r="K83">
-        <v>0.40132493910766398</v>
+        <v>0.33799332778497598</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -2944,10 +2920,10 @@
         <v>39995</v>
       </c>
       <c r="J84">
-        <v>0.33799332778497598</v>
+        <v>0.28064779650724098</v>
       </c>
       <c r="K84">
-        <v>0.33799332778497598</v>
+        <v>0.28064779650724098</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -2955,10 +2931,10 @@
         <v>40087</v>
       </c>
       <c r="J85">
-        <v>0.28064779650724098</v>
+        <v>0.27138607745384802</v>
       </c>
       <c r="K85">
-        <v>0.28064779650724098</v>
+        <v>0.27138607745384802</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -2966,10 +2942,10 @@
         <v>40179</v>
       </c>
       <c r="J86">
-        <v>0.27138607745384802</v>
+        <v>0.27739257158799602</v>
       </c>
       <c r="K86">
-        <v>0.27138607745384802</v>
+        <v>0.27739257158799602</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -2977,10 +2953,10 @@
         <v>40269</v>
       </c>
       <c r="J87">
-        <v>0.27739257158799602</v>
+        <v>0.31228725124583301</v>
       </c>
       <c r="K87">
-        <v>0.27739257158799602</v>
+        <v>0.31228725124583301</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -2988,10 +2964,10 @@
         <v>40360</v>
       </c>
       <c r="J88">
-        <v>0.31228725124583301</v>
+        <v>0.312811916325203</v>
       </c>
       <c r="K88">
-        <v>0.31228725124583301</v>
+        <v>0.312811916325203</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -2999,10 +2975,10 @@
         <v>40452</v>
       </c>
       <c r="J89">
-        <v>0.312811916325203</v>
+        <v>0.31413906597051</v>
       </c>
       <c r="K89">
-        <v>0.312811916325203</v>
+        <v>0.31413906597051</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3010,10 +2986,10 @@
         <v>40544</v>
       </c>
       <c r="J90">
-        <v>0.31413906597051</v>
+        <v>0.30216941453977703</v>
       </c>
       <c r="K90">
-        <v>0.31413906597051</v>
+        <v>0.30216941453977703</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3021,10 +2997,10 @@
         <v>40634</v>
       </c>
       <c r="J91">
-        <v>0.30216941453977703</v>
+        <v>0.287619981143655</v>
       </c>
       <c r="K91">
-        <v>0.30216941453977703</v>
+        <v>0.287619981143655</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3032,10 +3008,10 @@
         <v>40725</v>
       </c>
       <c r="J92">
-        <v>0.287619981143655</v>
+        <v>0.294151434124372</v>
       </c>
       <c r="K92">
-        <v>0.287619981143655</v>
+        <v>0.294151434124372</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3043,10 +3019,10 @@
         <v>40817</v>
       </c>
       <c r="J93">
-        <v>0.294151434124372</v>
+        <v>0.28508600254885402</v>
       </c>
       <c r="K93">
-        <v>0.294151434124372</v>
+        <v>0.28508600254885402</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3054,10 +3030,10 @@
         <v>40909</v>
       </c>
       <c r="J94">
-        <v>0.28508600254885402</v>
+        <v>0.32299719544587702</v>
       </c>
       <c r="K94">
-        <v>0.28508600254885402</v>
+        <v>0.32299719544587702</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3065,10 +3041,10 @@
         <v>41000</v>
       </c>
       <c r="J95">
-        <v>0.32299719544587702</v>
+        <v>0.32463182413441199</v>
       </c>
       <c r="K95">
-        <v>0.32299719544587702</v>
+        <v>0.32463182413441199</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,10 +3052,10 @@
         <v>41091</v>
       </c>
       <c r="J96">
-        <v>0.32463182413441199</v>
+        <v>0.330462078200498</v>
       </c>
       <c r="K96">
-        <v>0.32463182413441199</v>
+        <v>0.330462078200498</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,10 +3063,10 @@
         <v>41183</v>
       </c>
       <c r="J97">
-        <v>0.330462078200498</v>
+        <v>0.375138635615473</v>
       </c>
       <c r="K97">
-        <v>0.330462078200498</v>
+        <v>0.375138635615473</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3098,10 +3074,10 @@
         <v>41275</v>
       </c>
       <c r="J98">
-        <v>0.375138635615473</v>
+        <v>0.321654384130377</v>
       </c>
       <c r="K98">
-        <v>0.375138635615473</v>
+        <v>0.321654384130377</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -3109,10 +3085,10 @@
         <v>41365</v>
       </c>
       <c r="J99">
-        <v>0.321654384130377</v>
+        <v>0.33200741248670701</v>
       </c>
       <c r="K99">
-        <v>0.321654384130377</v>
+        <v>0.33200741248670701</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -3120,10 +3096,10 @@
         <v>41456</v>
       </c>
       <c r="J100">
-        <v>0.33200741248670701</v>
+        <v>0.33708145647856103</v>
       </c>
       <c r="K100">
-        <v>0.33200741248670701</v>
+        <v>0.33708145647856103</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,10 +3107,10 @@
         <v>41548</v>
       </c>
       <c r="J101">
-        <v>0.33708145647856103</v>
+        <v>0.29274760015844498</v>
       </c>
       <c r="K101">
-        <v>0.33708145647856103</v>
+        <v>0.29274760015844498</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,10 +3118,10 @@
         <v>41640</v>
       </c>
       <c r="J102">
-        <v>0.29274760015844498</v>
+        <v>0.25708552031244902</v>
       </c>
       <c r="K102">
-        <v>0.29274760015844498</v>
+        <v>0.25708552031244902</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3153,10 +3129,10 @@
         <v>41730</v>
       </c>
       <c r="J103">
-        <v>0.25708552031244902</v>
+        <v>0.38593591666086202</v>
       </c>
       <c r="K103">
-        <v>0.25708552031244902</v>
+        <v>0.38593591666086202</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -3164,10 +3140,10 @@
         <v>41821</v>
       </c>
       <c r="J104">
-        <v>0.38593591666086202</v>
+        <v>0.36046139529298099</v>
       </c>
       <c r="K104">
-        <v>0.38593591666086202</v>
+        <v>0.36046139529298099</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,10 +3151,10 @@
         <v>41913</v>
       </c>
       <c r="J105">
-        <v>0.36046139529298099</v>
+        <v>0.40680096761974899</v>
       </c>
       <c r="K105">
-        <v>0.36046139529298099</v>
+        <v>0.40680096761974899</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -3186,10 +3162,10 @@
         <v>42005</v>
       </c>
       <c r="J106">
-        <v>0.40680096761974899</v>
+        <v>0.41876580743810699</v>
       </c>
       <c r="K106">
-        <v>0.40680096761974899</v>
+        <v>0.41876580743810699</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -3197,10 +3173,10 @@
         <v>42095</v>
       </c>
       <c r="J107">
-        <v>0.41876580743810699</v>
+        <v>0.38077741515475499</v>
       </c>
       <c r="K107">
-        <v>0.41876580743810699</v>
+        <v>0.38077741515475499</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -3208,10 +3184,10 @@
         <v>42186</v>
       </c>
       <c r="J108">
-        <v>0.38077741515475499</v>
+        <v>0.365538181781494</v>
       </c>
       <c r="K108">
-        <v>0.38077741515475499</v>
+        <v>0.365538181781494</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -3219,10 +3195,10 @@
         <v>42278</v>
       </c>
       <c r="J109">
-        <v>0.365538181781494</v>
+        <v>0.37481263245521301</v>
       </c>
       <c r="K109">
-        <v>0.365538181781494</v>
+        <v>0.37481263245521301</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -3230,10 +3206,10 @@
         <v>42370</v>
       </c>
       <c r="J110">
-        <v>0.37481263245521301</v>
+        <v>0.409442266561094</v>
       </c>
       <c r="K110">
-        <v>0.37481263245521301</v>
+        <v>0.409442266561094</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -3241,10 +3217,10 @@
         <v>42461</v>
       </c>
       <c r="J111">
-        <v>0.409442266561094</v>
+        <v>0.38264184024870501</v>
       </c>
       <c r="K111">
-        <v>0.409442266561094</v>
+        <v>0.38264184024870501</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -3252,10 +3228,10 @@
         <v>42552</v>
       </c>
       <c r="J112">
-        <v>0.38264184024870501</v>
+        <v>0.32760744595755098</v>
       </c>
       <c r="K112">
-        <v>0.38264184024870501</v>
+        <v>0.32760744595755098</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,10 +3239,10 @@
         <v>42644</v>
       </c>
       <c r="J113">
-        <v>0.32760744595755098</v>
+        <v>0.35101959948766998</v>
       </c>
       <c r="K113">
-        <v>0.32760744595755098</v>
+        <v>0.35101959948766998</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -3274,10 +3250,10 @@
         <v>42736</v>
       </c>
       <c r="J114">
-        <v>0.35101959948766998</v>
+        <v>0.34742018920047502</v>
       </c>
       <c r="K114">
-        <v>0.35101959948766998</v>
+        <v>0.34742018920047502</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -3285,10 +3261,10 @@
         <v>42826</v>
       </c>
       <c r="J115">
-        <v>0.34742018920047502</v>
+        <v>0.332638403329375</v>
       </c>
       <c r="K115">
-        <v>0.34742018920047502</v>
+        <v>0.332638403329375</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -3296,10 +3272,10 @@
         <v>42917</v>
       </c>
       <c r="J116">
-        <v>0.332638403329375</v>
+        <v>0.37449360852166103</v>
       </c>
       <c r="K116">
-        <v>0.332638403329375</v>
+        <v>0.37449360852166103</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -3307,10 +3283,10 @@
         <v>43009</v>
       </c>
       <c r="J117">
-        <v>0.37449360852166103</v>
+        <v>0.31829896266900598</v>
       </c>
       <c r="K117">
-        <v>0.37449360852166103</v>
+        <v>0.31829896266900598</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -3318,10 +3294,10 @@
         <v>43101</v>
       </c>
       <c r="J118">
-        <v>0.31829896266900598</v>
+        <v>0.28868892175306998</v>
       </c>
       <c r="K118">
-        <v>0.31829896266900598</v>
+        <v>0.28868892175306998</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -3329,10 +3305,10 @@
         <v>43191</v>
       </c>
       <c r="J119">
-        <v>0.28868892175306998</v>
+        <v>0.31799640994946299</v>
       </c>
       <c r="K119">
-        <v>0.28868892175306998</v>
+        <v>0.31799640994946299</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -3340,10 +3316,10 @@
         <v>43282</v>
       </c>
       <c r="J120">
-        <v>0.31799640994946299</v>
+        <v>0.319181384100101</v>
       </c>
       <c r="K120">
-        <v>0.31799640994946299</v>
+        <v>0.319181384100101</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -3351,10 +3327,10 @@
         <v>43374</v>
       </c>
       <c r="J121">
-        <v>0.319181384100101</v>
+        <v>0.29747156233264399</v>
       </c>
       <c r="K121">
-        <v>0.319181384100101</v>
+        <v>0.29747156233264399</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,10 +3338,10 @@
         <v>43466</v>
       </c>
       <c r="J122">
-        <v>0.29747156233264399</v>
+        <v>0.30971507672382398</v>
       </c>
       <c r="K122">
-        <v>0.29747156233264399</v>
+        <v>0.30971507672382398</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -3373,10 +3349,10 @@
         <v>43556</v>
       </c>
       <c r="J123">
-        <v>0.30971507672382398</v>
+        <v>0.32863754804731499</v>
       </c>
       <c r="K123">
-        <v>0.30971507672382398</v>
+        <v>0.32863754804731499</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -3384,10 +3360,10 @@
         <v>43647</v>
       </c>
       <c r="J124">
-        <v>0.32863754804731499</v>
+        <v>0.29905440536158601</v>
       </c>
       <c r="K124">
-        <v>0.32863754804731499</v>
+        <v>0.29905440536158601</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -3395,29 +3371,23 @@
         <v>43739</v>
       </c>
       <c r="J125">
-        <v>0.29905440536158601</v>
+        <v>0.28181750372363801</v>
       </c>
       <c r="K125">
-        <v>0.29905440536158601</v>
+        <v>0.28181750372363801</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43831</v>
       </c>
-      <c r="J126">
-        <v>0.28181750372363801</v>
-      </c>
       <c r="K126">
-        <v>0.28181750372363801</v>
+        <v>0.39925273936012001</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43922</v>
-      </c>
-      <c r="K127">
-        <v>0.39925273936012001</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
